--- a/2 задание/Часть 2, тест кейсы.xlsx
+++ b/2 задание/Часть 2, тест кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E9189A-CEEF-41BB-8DF1-2D4A64E1D75E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3204C-B4CF-40C6-97DA-D153DA0A5C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
   </bookViews>
@@ -468,9 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -480,6 +477,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,15 +504,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,6 +539,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556F1DA-8C8D-4DB3-962A-399570015D53}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +874,10 @@
     <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,18 +905,18 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3">
@@ -925,395 +925,395 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="17"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="17"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="17"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="17"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="17"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="17"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="5">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="17"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="17"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="17"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="16"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="17"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="5">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="12">
+      <c r="A19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="11">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="17"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="11">
+      <c r="A20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="17"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="11">
+      <c r="A21" s="31"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="11">
+      <c r="A22" s="31"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="10">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="17"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="11">
+      <c r="A23" s="31"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="10">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="17"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="11">
+      <c r="A24" s="31"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="10">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="17"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="12">
+      <c r="A25" s="32"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="11">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,415 +1341,415 @@
       <c r="I26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="s">
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="16"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="11">
+      <c r="A28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="17"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="11">
+      <c r="A29" s="22"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="17"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="11">
+      <c r="A30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="17"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="11">
+      <c r="A31" s="22"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="17"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="12">
+      <c r="A32" s="22"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11">
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="18"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="20"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="16"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="17"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="17"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="20"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="17"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="5">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="17"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="18"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="16"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="17"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="17"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="17"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="5">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="17"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="12">
+      <c r="A44" s="23"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="11">
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="17"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="11">
+      <c r="A45" s="23"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="17"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="11">
+      <c r="A46" s="23"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="17"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="11">
+      <c r="A47" s="23"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="10">
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="17"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="11">
+      <c r="A48" s="23"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="10">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="17"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="11">
+      <c r="A49" s="23"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="10">
         <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="17"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="6">
         <v>6</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,18 +1777,18 @@
       <c r="I51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
@@ -1797,397 +1797,397 @@
       <c r="E52" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13" t="s">
+      <c r="H52" s="15"/>
+      <c r="I52" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J52" s="16"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="17"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="17"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="19"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="20"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="17"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="19"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="5">
         <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="17"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="19"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="18"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13" t="s">
+      <c r="G58" s="12"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J58" s="16"/>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="17"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="19"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="17"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="17"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="19"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="20"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="17"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="19"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="6">
         <v>6</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="17"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="13" t="s">
+      <c r="G64" s="12"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J64" s="16"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="17"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="17"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="19"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="30"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="17"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="19"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="29"/>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="17"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="12">
+      <c r="A69" s="23"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="11">
         <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="17"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="19"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="11">
+      <c r="A70" s="23"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="10">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="17"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="11">
+      <c r="A71" s="23"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="10">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="17"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="19"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="11">
+      <c r="A72" s="23"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="10">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="17"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="19"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="11">
+      <c r="A73" s="23"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="10">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="17"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="19"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="11">
+      <c r="A74" s="23"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="10">
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="17"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="19"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="31"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="6">
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2215,18 +2215,18 @@
       <c r="I76" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3">
@@ -2235,395 +2235,395 @@
       <c r="E77" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="19" t="s">
+      <c r="F77" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G77" s="19"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13" t="s">
+      <c r="G77" s="14"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J77" s="16"/>
+      <c r="J77" s="18"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="5">
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="17"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="19"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="17"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="19"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="20"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="5">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="17"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="19"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="20"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="5">
         <v>5</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="17"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="19"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="20"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="6">
         <v>6</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="21"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="18"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="20"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="20"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="20"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13" t="s">
+      <c r="G83" s="12"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J83" s="16"/>
+      <c r="J83" s="18"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="20"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="17"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="19"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="20"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="17"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="19"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="20"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="12"/>
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="17"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="19"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="20"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="12"/>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="17"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="19"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="20"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="12"/>
       <c r="D88" s="6">
         <v>6</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="21"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="17"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="19"/>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="10">
+      <c r="A89" s="22"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G89" s="20"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="13" t="s">
+      <c r="G89" s="12"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J89" s="16"/>
+      <c r="J89" s="18"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="11">
+      <c r="A90" s="22"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="10">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="17"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="19"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="11">
+      <c r="A91" s="22"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="10">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="17"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="19"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="11">
+      <c r="A92" s="23"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="10">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="17"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="19"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="11">
+      <c r="A93" s="23"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="10">
         <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="17"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="19"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="12">
+      <c r="A94" s="23"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="11">
         <v>6</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F94" s="21"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="17"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="19"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="11">
+      <c r="A95" s="23"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="10">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="F95" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G95" s="20"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="17"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="19"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="11">
+      <c r="A96" s="23"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="10">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="17"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="19"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="11">
+      <c r="A97" s="23"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="10">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="17"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="19"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="11">
+      <c r="A98" s="23"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="10">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="17"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="19"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="11">
+      <c r="A99" s="23"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="10">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="17"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="19"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="12">
+      <c r="A100" s="24"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="11">
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F100" s="21"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="18"/>
-    </row>
-    <row r="101" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -2651,18 +2651,18 @@
       <c r="I101" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="19" t="s">
+      <c r="C102" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="3">
@@ -2671,464 +2671,397 @@
       <c r="E102" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F102" s="19" t="s">
+      <c r="F102" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G102" s="19"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13" t="s">
+      <c r="G102" s="14"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J102" s="16"/>
+      <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="20"/>
+      <c r="A103" s="22"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="12"/>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="17"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="19"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="20"/>
+      <c r="A104" s="22"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="12"/>
       <c r="D104" s="5">
         <v>3</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="17"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="19"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="20"/>
+      <c r="A105" s="22"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="5">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="17"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="19"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="20"/>
+      <c r="A106" s="22"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="12"/>
       <c r="D106" s="5">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="17"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="19"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="20"/>
+      <c r="A107" s="22"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="12"/>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F107" s="21"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="18"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="20"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="20"/>
+      <c r="A108" s="22"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="12"/>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G108" s="20"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13" t="s">
+      <c r="G108" s="12"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J108" s="16"/>
+      <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="20"/>
+      <c r="A109" s="22"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="17"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="19"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="20"/>
+      <c r="A110" s="22"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="12"/>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="17"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="19"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="20"/>
+      <c r="A111" s="22"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="5">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="17"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="19"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="20"/>
+      <c r="A112" s="22"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="12"/>
       <c r="D112" s="5">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="17"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="19"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="20"/>
+      <c r="A113" s="22"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="6">
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F113" s="21"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="17"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="19"/>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="20"/>
+      <c r="A114" s="22"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="12"/>
       <c r="D114" s="3">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F114" s="19" t="s">
+      <c r="F114" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G114" s="20"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="13" t="s">
+      <c r="G114" s="12"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J114" s="16"/>
+      <c r="J114" s="18"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="20"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="12"/>
       <c r="D115" s="5">
         <v>2</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="17"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="19"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="20"/>
+      <c r="A116" s="22"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="12"/>
       <c r="D116" s="5">
         <v>3</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="17"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="19"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="30"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="29"/>
       <c r="D117" s="5">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="17"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="19"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="30"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="29"/>
       <c r="D118" s="5">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="17"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="19"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="12">
+      <c r="A119" s="23"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="11">
         <v>6</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F119" s="21"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="17"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="19"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="11">
+      <c r="A120" s="23"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F120" s="20" t="s">
+      <c r="F120" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G120" s="20"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="17"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="19"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="11">
+      <c r="A121" s="23"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="10">
         <v>2</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="17"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="19"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="11">
+      <c r="A122" s="23"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="10">
         <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="17"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="19"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="11">
+      <c r="A123" s="23"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="10">
         <v>4</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="17"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="19"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="11">
+      <c r="A124" s="23"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="10">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="17"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="19"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="31"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="30"/>
       <c r="D125" s="6">
         <v>6</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F125" s="21"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="18"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="F120:F125"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="J39:J50"/>
-    <mergeCell ref="I39:I50"/>
-    <mergeCell ref="H39:H50"/>
-    <mergeCell ref="G27:G50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="I114:I125"/>
-    <mergeCell ref="J114:J125"/>
-    <mergeCell ref="I102:I107"/>
-    <mergeCell ref="J102:J107"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="I108:I113"/>
-    <mergeCell ref="J108:J113"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="H114:H125"/>
-    <mergeCell ref="A102:A125"/>
-    <mergeCell ref="B102:B125"/>
-    <mergeCell ref="C102:C125"/>
-    <mergeCell ref="F102:F107"/>
-    <mergeCell ref="G102:G125"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="H89:H100"/>
-    <mergeCell ref="I89:I100"/>
-    <mergeCell ref="J89:J100"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="A52:A75"/>
-    <mergeCell ref="B52:B75"/>
-    <mergeCell ref="C52:C75"/>
-    <mergeCell ref="A77:A100"/>
-    <mergeCell ref="B77:B100"/>
-    <mergeCell ref="C77:C100"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G100"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="I52:I57"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="H58:H63"/>
-    <mergeCell ref="I58:I63"/>
-    <mergeCell ref="J58:J63"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G75"/>
-    <mergeCell ref="H52:H57"/>
-    <mergeCell ref="H64:H75"/>
-    <mergeCell ref="I64:I75"/>
-    <mergeCell ref="J64:J75"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="J14:J25"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C25"/>
@@ -3145,7 +3078,74 @@
     <mergeCell ref="G2:G25"/>
     <mergeCell ref="H14:H25"/>
     <mergeCell ref="I14:I25"/>
-    <mergeCell ref="J14:J25"/>
+    <mergeCell ref="I52:I57"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="H58:H63"/>
+    <mergeCell ref="I58:I63"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G75"/>
+    <mergeCell ref="H52:H57"/>
+    <mergeCell ref="H64:H75"/>
+    <mergeCell ref="I64:I75"/>
+    <mergeCell ref="J64:J75"/>
+    <mergeCell ref="A52:A75"/>
+    <mergeCell ref="B52:B75"/>
+    <mergeCell ref="C52:C75"/>
+    <mergeCell ref="A77:A100"/>
+    <mergeCell ref="B77:B100"/>
+    <mergeCell ref="C77:C100"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="H89:H100"/>
+    <mergeCell ref="I89:I100"/>
+    <mergeCell ref="J89:J100"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="A102:A125"/>
+    <mergeCell ref="B102:B125"/>
+    <mergeCell ref="C102:C125"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="G102:G125"/>
+    <mergeCell ref="J114:J125"/>
+    <mergeCell ref="I102:I107"/>
+    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="H114:H125"/>
+    <mergeCell ref="J39:J50"/>
+    <mergeCell ref="I39:I50"/>
+    <mergeCell ref="H39:H50"/>
+    <mergeCell ref="G27:G50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="F120:F125"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="I114:I125"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G100"/>
+    <mergeCell ref="F83:F88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2 задание/Часть 2, тест кейсы.xlsx
+++ b/2 задание/Часть 2, тест кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D3204C-B4CF-40C6-97DA-D153DA0A5C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8688F2A9-FC91-491B-A754-84E970A1024A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t xml:space="preserve"> id тест-кейса</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Зайти на сайт Яндекс.маршруты</t>
-  </si>
-  <si>
-    <t>Google Chrome не ниже версии 72, Yandex.Browser не ниже 18.1.0</t>
   </si>
   <si>
     <t>Расчет времени и стоимости поездки
@@ -477,16 +474,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,54 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556F1DA-8C8D-4DB3-962A-399570015D53}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J101" sqref="J101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,413 +902,413 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="5">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="5">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="11">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="10">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="10">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="10">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="11">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1341,413 +1338,413 @@
       <c r="I26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="10">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="10">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="12"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="11">
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="18"/>
+      <c r="F33" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="12"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="5">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="12"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="5">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="11">
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="10">
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="10">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="10">
         <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="6">
         <v>6</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1777,415 +1774,413 @@
       <c r="I51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="33" t="s">
+      <c r="J51" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="5">
         <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="12"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="12"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="6">
         <v>6</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F63" s="30"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="14"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="12"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="29"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="29"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="29"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="11">
         <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F69" s="30"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="29"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="10">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="29"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="10">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="29"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="10">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="19"/>
+        <v>70</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="29"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="10">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="29"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="10">
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="30"/>
+      <c r="A75" s="29"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="6">
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="15"/>
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2215,413 +2210,413 @@
       <c r="I76" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="33" t="s">
+      <c r="J76" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="14" t="s">
+      <c r="A77" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="14"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="12"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="5">
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="12"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="14"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="5">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="14"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="12"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="5">
         <v>5</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="14"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="12"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="6">
         <v>6</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F82" s="30"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="15"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="12"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="25"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="12"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="12"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="12"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="12"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="6">
         <v>6</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F88" s="30"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="12"/>
+      <c r="A89" s="17"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="18"/>
+        <v>22</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="25"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="13"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="12"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="10">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="10">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="29"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="10">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="29"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="10">
         <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="29"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="11">
         <v>6</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F94" s="30"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="29"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="10">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F95" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F95" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="19"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="14"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="29"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="10">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="14"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="29"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="10">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="14"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="29"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="10">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="29"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="10">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="14"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="24"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="30"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="27"/>
       <c r="D100" s="11">
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2651,472 +2646,424 @@
       <c r="I101" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="33" t="s">
+      <c r="J101" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="14" t="s">
+      <c r="A102" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G102" s="14"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J102" s="18"/>
+        <v>47</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G102" s="24"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="13"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="12"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="14"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="12"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="5">
         <v>3</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="12"/>
+      <c r="A105" s="17"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="5">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="12"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="5">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="12"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F107" s="30"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="33"/>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="12"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G108" s="12"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J108" s="18"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="31"/>
+      <c r="I108" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" s="13"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="12"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="14"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="12"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="12"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="5">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="14"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="12"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="5">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="14"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="6">
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="13"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F113" s="30"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="33"/>
+      <c r="J113" s="14"/>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="3">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F114" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F114" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J114" s="18"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" s="13"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="12"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="5">
         <v>2</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="14"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="12"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="5">
         <v>3</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="19"/>
+        <v>67</v>
+      </c>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="14"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="23"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="29"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="26"/>
       <c r="D117" s="5">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="14"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
-      <c r="B118" s="27"/>
-      <c r="C118" s="29"/>
+      <c r="A118" s="28"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="26"/>
       <c r="D118" s="5">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="23"/>
-      <c r="B119" s="27"/>
-      <c r="C119" s="29"/>
+      <c r="A119" s="28"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="26"/>
       <c r="D119" s="11">
         <v>6</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="13"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F119" s="30"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="14"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="29"/>
+      <c r="A120" s="28"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="26"/>
       <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G120" s="12"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="25"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="14"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="23"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="29"/>
+      <c r="A121" s="28"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="26"/>
       <c r="D121" s="10">
         <v>2</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="14"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="23"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="29"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="26"/>
       <c r="D122" s="10">
         <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="23"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="29"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="26"/>
       <c r="D123" s="10">
         <v>4</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="14"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="23"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="29"/>
+      <c r="A124" s="28"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="26"/>
       <c r="D124" s="10">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="14"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="24"/>
-      <c r="B125" s="28"/>
-      <c r="C125" s="30"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="27"/>
       <c r="D125" s="6">
         <v>6</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="J14:J25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C25"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="A27:A50"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="C27:C50"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G25"/>
-    <mergeCell ref="H14:H25"/>
-    <mergeCell ref="I14:I25"/>
-    <mergeCell ref="I52:I57"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="H58:H63"/>
-    <mergeCell ref="I58:I63"/>
-    <mergeCell ref="J58:J63"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="G52:G75"/>
-    <mergeCell ref="H52:H57"/>
-    <mergeCell ref="H64:H75"/>
-    <mergeCell ref="I64:I75"/>
-    <mergeCell ref="J64:J75"/>
-    <mergeCell ref="A52:A75"/>
-    <mergeCell ref="B52:B75"/>
-    <mergeCell ref="C52:C75"/>
-    <mergeCell ref="A77:A100"/>
-    <mergeCell ref="B77:B100"/>
-    <mergeCell ref="C77:C100"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="H89:H100"/>
-    <mergeCell ref="I89:I100"/>
-    <mergeCell ref="J89:J100"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="J77:J82"/>
-    <mergeCell ref="A102:A125"/>
-    <mergeCell ref="B102:B125"/>
-    <mergeCell ref="C102:C125"/>
-    <mergeCell ref="F102:F107"/>
-    <mergeCell ref="G102:G125"/>
-    <mergeCell ref="J114:J125"/>
-    <mergeCell ref="I102:I107"/>
-    <mergeCell ref="J102:J107"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="I108:I113"/>
-    <mergeCell ref="J108:J113"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="H114:H125"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G100"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="I114:I125"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="I83:I88"/>
     <mergeCell ref="J39:J50"/>
     <mergeCell ref="I39:I50"/>
     <mergeCell ref="H39:H50"/>
@@ -3130,22 +3077,70 @@
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="I27:I32"/>
     <mergeCell ref="J27:J32"/>
+    <mergeCell ref="J114:J125"/>
+    <mergeCell ref="I102:I107"/>
+    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="H114:H125"/>
     <mergeCell ref="F120:F125"/>
     <mergeCell ref="F114:F119"/>
+    <mergeCell ref="A102:A125"/>
+    <mergeCell ref="B102:B125"/>
+    <mergeCell ref="C102:C125"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="G102:G125"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="H89:H100"/>
+    <mergeCell ref="I89:I100"/>
+    <mergeCell ref="J89:J100"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="A52:A75"/>
+    <mergeCell ref="B52:B75"/>
+    <mergeCell ref="C52:C75"/>
+    <mergeCell ref="A77:A100"/>
+    <mergeCell ref="B77:B100"/>
+    <mergeCell ref="C77:C100"/>
+    <mergeCell ref="I52:I57"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="H58:H63"/>
+    <mergeCell ref="I58:I63"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="G52:G75"/>
+    <mergeCell ref="H52:H57"/>
+    <mergeCell ref="H64:H75"/>
+    <mergeCell ref="I64:I75"/>
+    <mergeCell ref="J64:J75"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="A27:A50"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="C27:C50"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F8:F13"/>
     <mergeCell ref="F20:F25"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="J14:J25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G25"/>
+    <mergeCell ref="H14:H25"/>
+    <mergeCell ref="I14:I25"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="I2:I7"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="I114:I125"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G100"/>
-    <mergeCell ref="F83:F88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2 задание/Часть 2, тест кейсы.xlsx
+++ b/2 задание/Часть 2, тест кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8688F2A9-FC91-491B-A754-84E970A1024A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC79186-2059-4F0E-A632-36B6AD292D23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
   <si>
     <t xml:space="preserve"> id тест-кейса</t>
   </si>
@@ -304,13 +304,16 @@
     <t>В информационном блоке отражается: 
 1. Время поездкии: ~3 минут
 2.Стоимость поездки: 60 рублей</t>
+  </si>
+  <si>
+    <t>Windows 10, Google Chrome Версия 89.0.4389.90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +345,20 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -439,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -478,6 +495,24 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,51 +528,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -857,7 +886,7 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:G75"/>
+      <selection activeCell="M122" sqref="L122:M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,13 +936,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3">
@@ -922,393 +951,397 @@
       <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="31" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="5">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="11">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="10">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="10">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="10">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="11">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1335,7 +1368,7 @@
       <c r="H26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="12" t="s">
@@ -1343,13 +1376,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="9">
@@ -1358,393 +1391,397 @@
       <c r="E27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31" t="s">
+      <c r="G27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="10">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="10">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="11">
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31" t="s">
+      <c r="G33" s="14"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="13"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="5">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="13"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="5">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="11">
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="25"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="10">
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="10">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="10">
         <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="27"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="6">
         <v>6</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1771,7 +1808,7 @@
       <c r="H51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J51" s="12" t="s">
@@ -1779,13 +1816,13 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
@@ -1794,393 +1831,397 @@
       <c r="E52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="F52" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31" t="s">
+      <c r="G52" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="13"/>
+      <c r="J52" s="19"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="5">
         <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31" t="s">
+      <c r="G58" s="14"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="13"/>
+      <c r="J58" s="19"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="20"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="6">
         <v>6</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="30"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="14"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="20"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="24" t="s">
+      <c r="F64" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="31" t="s">
+      <c r="G64" s="14"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="13"/>
+      <c r="J64" s="19"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="20"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="20"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="30"/>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="20"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="26"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="30"/>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="20"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="30"/>
       <c r="D69" s="11">
         <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="30"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="14"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="20"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="26"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="10">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="19"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="10">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="20"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="30"/>
       <c r="D72" s="10">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="20"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="26"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="30"/>
       <c r="D73" s="10">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="20"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="26"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="30"/>
       <c r="D74" s="10">
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="20"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="27"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="6">
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="20"/>
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2207,7 +2248,7 @@
       <c r="H76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J76" s="12" t="s">
@@ -2215,13 +2256,13 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3">
@@ -2230,393 +2271,397 @@
       <c r="E77" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31" t="s">
+      <c r="G77" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="13"/>
+      <c r="J77" s="19"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="5">
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="20"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="20"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="5">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="5">
         <v>5</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="20"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="6">
         <v>6</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="30"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G83" s="25"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31" t="s">
+      <c r="G83" s="14"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="13"/>
+      <c r="J83" s="19"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="25"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="14"/>
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="20"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="14"/>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
-      <c r="J85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="20"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="25"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="14"/>
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="20"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="14"/>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="20"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="25"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="14"/>
       <c r="D88" s="6">
         <v>6</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="30"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="14"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="20"/>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="25"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="24" t="s">
+      <c r="F89" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G89" s="25"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="31" t="s">
+      <c r="G89" s="14"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="13"/>
+      <c r="J89" s="19"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="25"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="10">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="20"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="25"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="14"/>
       <c r="D91" s="10">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
-      <c r="J91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="20"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="26"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="30"/>
       <c r="D92" s="10">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="20"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="26"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="30"/>
       <c r="D93" s="10">
         <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="20"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="26"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="11">
         <v>6</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="14"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="20"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="30"/>
       <c r="D95" s="10">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F95" s="25" t="s">
+      <c r="F95" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="G95" s="25"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="19"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="10">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="32"/>
-      <c r="J96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="20"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="26"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="10">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="32"/>
-      <c r="J97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="20"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="26"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="10">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="25"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="20"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="26"/>
+      <c r="A99" s="24"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="10">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="32"/>
-      <c r="I99" s="32"/>
-      <c r="J99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="27"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="11">
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="20"/>
     </row>
     <row r="101" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2643,7 +2688,7 @@
       <c r="H101" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J101" s="12" t="s">
@@ -2651,13 +2696,13 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="3">
@@ -2666,439 +2711,440 @@
       <c r="E102" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F102" s="24" t="s">
+      <c r="F102" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G102" s="24"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31" t="s">
+      <c r="G102" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H102" s="16"/>
+      <c r="I102" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="13"/>
+      <c r="J102" s="19"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="25"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="14"/>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="25"/>
-      <c r="G103" s="25"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="25"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="14"/>
       <c r="D104" s="5">
         <v>3</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="32"/>
-      <c r="J104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="25"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="14"/>
       <c r="D105" s="5">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="32"/>
-      <c r="J105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="25"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="14"/>
       <c r="D106" s="5">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="25"/>
-      <c r="G106" s="25"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="32"/>
-      <c r="J106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="20"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="14"/>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="30"/>
-      <c r="G107" s="25"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="14"/>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F108" s="24" t="s">
+      <c r="F108" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G108" s="25"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31" t="s">
+      <c r="G108" s="14"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J108" s="13"/>
+      <c r="J108" s="19"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="25"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="14"/>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F109" s="25"/>
-      <c r="G109" s="25"/>
-      <c r="H109" s="32"/>
-      <c r="I109" s="32"/>
-      <c r="J109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="20"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="25"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="14"/>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="20"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="25"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="5">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F111" s="25"/>
-      <c r="G111" s="25"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="20"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="25"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="14"/>
       <c r="D112" s="5">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="32"/>
-      <c r="J112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="20"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="25"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="6">
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="30"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="14"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="20"/>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="25"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="14"/>
       <c r="D114" s="3">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F114" s="24" t="s">
+      <c r="F114" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G114" s="25"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="31" t="s">
+      <c r="G114" s="14"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J114" s="13"/>
+      <c r="J114" s="19"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="25"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="14"/>
       <c r="D115" s="5">
         <v>2</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
-      <c r="J115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="20"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="25"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="14"/>
       <c r="D116" s="5">
         <v>3</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="20"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="28"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="26"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="30"/>
       <c r="D117" s="5">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
-      <c r="J117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="20"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="26"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="30"/>
       <c r="D118" s="5">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="32"/>
-      <c r="J118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="20"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="28"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="26"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="30"/>
       <c r="D119" s="11">
         <v>6</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="30"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="32"/>
-      <c r="J119" s="14"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="20"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="28"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="26"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="30"/>
       <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F120" s="25" t="s">
+      <c r="F120" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G120" s="25"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="32"/>
-      <c r="J120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="19"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="26"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="30"/>
       <c r="D121" s="10">
         <v>2</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="32"/>
-      <c r="J121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="20"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="28"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="26"/>
+      <c r="A122" s="24"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="30"/>
       <c r="D122" s="10">
         <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="20"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="28"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="26"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="30"/>
       <c r="D123" s="10">
         <v>4</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="32"/>
-      <c r="J123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="20"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="26"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="30"/>
       <c r="D124" s="10">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="32"/>
-      <c r="J124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="20"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="27"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="31"/>
       <c r="D125" s="6">
         <v>6</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="J125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G100"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="I114:I125"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J39:J50"/>
-    <mergeCell ref="I39:I50"/>
-    <mergeCell ref="H39:H50"/>
-    <mergeCell ref="G27:G50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="J114:J125"/>
-    <mergeCell ref="I102:I107"/>
-    <mergeCell ref="J102:J107"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="I108:I113"/>
-    <mergeCell ref="J108:J113"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="H114:H125"/>
-    <mergeCell ref="F120:F125"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="A102:A125"/>
-    <mergeCell ref="B102:B125"/>
-    <mergeCell ref="C102:C125"/>
-    <mergeCell ref="F102:F107"/>
-    <mergeCell ref="G102:G125"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="H89:H100"/>
-    <mergeCell ref="I89:I100"/>
-    <mergeCell ref="J89:J100"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="I77:I82"/>
+  <mergeCells count="100">
+    <mergeCell ref="I89:I94"/>
+    <mergeCell ref="I95:I100"/>
+    <mergeCell ref="H89:H94"/>
+    <mergeCell ref="H95:H100"/>
+    <mergeCell ref="J89:J94"/>
+    <mergeCell ref="J95:J100"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G25"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="A27:A50"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="C27:C50"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="H64:H69"/>
+    <mergeCell ref="H70:H75"/>
+    <mergeCell ref="J64:J69"/>
+    <mergeCell ref="J70:J75"/>
     <mergeCell ref="J77:J82"/>
     <mergeCell ref="A52:A75"/>
     <mergeCell ref="B52:B75"/>
@@ -3115,32 +3161,50 @@
     <mergeCell ref="F52:F57"/>
     <mergeCell ref="G52:G75"/>
     <mergeCell ref="H52:H57"/>
-    <mergeCell ref="H64:H75"/>
-    <mergeCell ref="I64:I75"/>
-    <mergeCell ref="J64:J75"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="A27:A50"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="C27:C50"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="J14:J25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C25"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G25"/>
-    <mergeCell ref="H14:H25"/>
-    <mergeCell ref="I14:I25"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="F120:F125"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="A102:A125"/>
+    <mergeCell ref="B102:B125"/>
+    <mergeCell ref="C102:C125"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="G102:G125"/>
+    <mergeCell ref="I114:I119"/>
+    <mergeCell ref="I120:I125"/>
+    <mergeCell ref="H114:H119"/>
+    <mergeCell ref="H120:H125"/>
+    <mergeCell ref="J114:J119"/>
+    <mergeCell ref="J120:J125"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="G27:G50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I39:I44"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="I102:I107"/>
+    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G100"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="F89:F94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2 задание/Часть 2, тест кейсы.xlsx
+++ b/2 задание/Часть 2, тест кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC79186-2059-4F0E-A632-36B6AD292D23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D22952-545F-4E0D-ACDA-28B4E7F98E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="85">
   <si>
     <t xml:space="preserve"> id тест-кейса</t>
   </si>
@@ -96,9 +96,6 @@
     <t>В панели видов транспорта выбрать "Свой автомобиль"</t>
   </si>
   <si>
-    <t>В поле "откуда ввести "М. Пироговская, 25"</t>
-  </si>
-  <si>
     <t>В поле "куда" ввести "Комсомольский проспект, 18"</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>в поле "минуты ввести "50"</t>
-  </si>
-  <si>
-    <t>В поле "откуда ввести "Зубовский бульвар, 37"</t>
   </si>
   <si>
     <t>В поле "куда" ввести "Зубовский бульвар, 37"</t>
@@ -131,13 +125,7 @@
 2.Стоимость поездки: 0 рублей </t>
   </si>
   <si>
-    <t>В поле "откуда ввести "Фрунзенская набережная, 46"</t>
-  </si>
-  <si>
     <t>В поле "куда" ввести "Фрунзенская набережная, 46"</t>
-  </si>
-  <si>
-    <t>В поле "откуда ввести  "Фрунзенская набережная, 46"</t>
   </si>
   <si>
     <t>В поле "часы" ввести "10"</t>
@@ -181,9 +169,6 @@
     <t>в поле "минуты ввести "01"</t>
   </si>
   <si>
-    <t>В поле "откуда ввести "Усачева, 3"</t>
-  </si>
-  <si>
     <t>В поле "часы" ввести "16"</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>в поле "минуты ввести "59"</t>
   </si>
   <si>
-    <t xml:space="preserve">В поле "часы" ввести "11" </t>
-  </si>
-  <si>
     <t>В поле "часы" ввести "19"</t>
   </si>
   <si>
@@ -227,9 +209,6 @@
 2.Стоимость поездки: 72 рублей </t>
   </si>
   <si>
-    <t>В поле "откуда ввести "Хамовнический Вал, 34"</t>
-  </si>
-  <si>
     <t xml:space="preserve">В информационном блоке отражается: 
 1. Время поездкии: 0 минут
 2.Стоимость поездки:0 рублей </t>
@@ -240,9 +219,6 @@
 2.Стоимость поездки: 26 рублей </t>
   </si>
   <si>
-    <t>В поле "откуда ввести "Комсомольский проспект, 18"</t>
-  </si>
-  <si>
     <t xml:space="preserve">В информационном блоке отражается: 
 1. Время поездкии: ~ 2,3 минут
 2.Стоимость поездки: 46 рублей </t>
@@ -275,9 +251,6 @@
 Стоимость поездки: 60 рублей </t>
   </si>
   <si>
-    <t>В поле "откуда ввести  "Комсомольский проспект, 18"</t>
-  </si>
-  <si>
     <t xml:space="preserve">В информационном блоке отражается: 
 1. Время поездкии: 7,05 минуты
 Стоимость поездки: 141 рублей </t>
@@ -293,9 +266,6 @@
 2.Стоимость поездки: 105 рублей </t>
   </si>
   <si>
-    <t>В поле "откуда ввести  "М. Пироговская, 25"</t>
-  </si>
-  <si>
     <t xml:space="preserve">В информационном блоке отражается: 
 1. Время поездкии: 3,84 минут
 2.Стоимость поездки: 76,8 рублей </t>
@@ -307,6 +277,48 @@
   </si>
   <si>
     <t>Windows 10, Google Chrome Версия 89.0.4389.90</t>
+  </si>
+  <si>
+    <t>в поле "минуты" ввести "01"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести "Зубовский бульвар, 37"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести "М. Пироговская, 25"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести "Комсомольский проспект, 18"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести  "Фрунзенская набережная, 46"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести "Фрунзенская набережная, 46"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести "Усачева, 3"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести  "Комсомольский проспект, 18"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести  "М. Пироговская, 25"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести "Хамовнический Вал, 34"</t>
+  </si>
+  <si>
+    <t>В поле "откуда" ввести "3-я Фрунзенская улица, 12"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В поле "часы" ввести "12" </t>
+  </si>
+  <si>
+    <t>в поле "минуты ввести "30"</t>
+  </si>
+  <si>
+    <t>В поле "часы" ввести "11"</t>
   </si>
 </sst>
 </file>
@@ -456,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,80 +506,83 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556F1DA-8C8D-4DB3-962A-399570015D53}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M122" sqref="L122:M122"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,408 +957,408 @@
       <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="27"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="27"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="27"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="17"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="21"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="27"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="31"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="19"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="27"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="27"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="5">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="20"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="31"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="15"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="5">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="30"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="11">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="31"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="10">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="10">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="10">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
       <c r="B25" s="29"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="11">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1368,420 +1383,426 @@
       <c r="H26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="H27" s="16"/>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="10">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="15"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="15"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="17"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="15"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="10">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="17"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="15"/>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="27"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="11">
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="35"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="20"/>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="31"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="18"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="15"/>
+      <c r="J34" s="19"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="27"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="15"/>
+      <c r="J35" s="19"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="27"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
       <c r="H36" s="17"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="15"/>
+      <c r="J36" s="19"/>
+      <c r="M36" s="38"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="27"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="5">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
       <c r="H37" s="17"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="15"/>
+      <c r="J37" s="19"/>
+      <c r="M37" s="38"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="27"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="35"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="27"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="31"/>
       <c r="H39" s="16"/>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="19"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="17"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="15"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="27"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="17"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
       <c r="B42" s="28"/>
-      <c r="C42" s="30"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="17"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
       <c r="B43" s="28"/>
-      <c r="C43" s="30"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="5">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
       <c r="H43" s="17"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
       <c r="B44" s="28"/>
-      <c r="C44" s="30"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="11">
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="21"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
       <c r="B45" s="28"/>
-      <c r="C45" s="30"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="31"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="34" t="s">
+      <c r="I45" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
       <c r="B46" s="28"/>
-      <c r="C46" s="30"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
       <c r="B47" s="28"/>
-      <c r="C47" s="30"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="10">
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
       <c r="H47" s="17"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
       <c r="B48" s="28"/>
-      <c r="C48" s="30"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="10">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
       <c r="H48" s="17"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="20"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="28"/>
-      <c r="C49" s="30"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="10">
         <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
       <c r="H49" s="17"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="20"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="29"/>
-      <c r="C50" s="31"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="6">
         <v>6</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="21"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1808,7 +1829,7 @@
       <c r="H51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="37" t="s">
+      <c r="I51" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J51" s="12" t="s">
@@ -1822,406 +1843,406 @@
       <c r="B52" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="H52" s="16"/>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="19"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="27"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
       <c r="H53" s="17"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="20"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="14"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
       <c r="H54" s="17"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="20"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="19"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="27"/>
-      <c r="C55" s="14"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
       <c r="H55" s="17"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="20"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="19"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="27"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="5">
         <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
       <c r="H56" s="17"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="20"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="19"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="27"/>
-      <c r="C57" s="14"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="21"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="27"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="31"/>
       <c r="H58" s="16"/>
-      <c r="I58" s="34" t="s">
+      <c r="I58" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="19"/>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="27"/>
-      <c r="C59" s="14"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
       <c r="H59" s="17"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="20"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="19"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="27"/>
-      <c r="C60" s="14"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
       <c r="H60" s="17"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="20"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="27"/>
-      <c r="C61" s="14"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
       <c r="H61" s="17"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="20"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="19"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="27"/>
-      <c r="C62" s="14"/>
+      <c r="C62" s="31"/>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
       <c r="H62" s="17"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="20"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="19"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="27"/>
-      <c r="C63" s="14"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="6">
         <v>6</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="27"/>
-      <c r="C64" s="14"/>
+      <c r="C64" s="31"/>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="31"/>
       <c r="H64" s="16"/>
-      <c r="I64" s="34" t="s">
+      <c r="I64" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="19"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="27"/>
-      <c r="C65" s="14"/>
+      <c r="C65" s="31"/>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
       <c r="H65" s="17"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="20"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="27"/>
-      <c r="C66" s="14"/>
+      <c r="C66" s="31"/>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
       <c r="H66" s="17"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="20"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="19"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="30"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
       <c r="H67" s="17"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="20"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="19"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
+      <c r="A68" s="36"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="30"/>
+      <c r="C68" s="32"/>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
       <c r="H68" s="17"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="20"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
+      <c r="A69" s="36"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="30"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="11">
         <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="19"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="30"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="10">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="31"/>
       <c r="H70" s="17"/>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="19"/>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="30"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="10">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
       <c r="H71" s="17"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="20"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="19"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
+      <c r="A72" s="36"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="30"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="10">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
       <c r="H72" s="17"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="20"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="19"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
+      <c r="A73" s="36"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="30"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="10">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
       <c r="H73" s="17"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="20"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="19"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
+      <c r="A74" s="36"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="30"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="10">
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
       <c r="H74" s="17"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="20"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="19"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="29"/>
-      <c r="C75" s="31"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="6">
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="19"/>
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2248,7 +2269,7 @@
       <c r="H76" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="37" t="s">
+      <c r="I76" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J76" s="12" t="s">
@@ -2260,408 +2281,408 @@
         <v>15</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="H77" s="16"/>
-      <c r="I77" s="34" t="s">
+      <c r="I77" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="19"/>
+      <c r="J77" s="18"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="27"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="31"/>
       <c r="D78" s="5">
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="20"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="19"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="27"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="31"/>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="20"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="19"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="27"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="31"/>
       <c r="D80" s="5">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="20"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="19"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="27"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="31"/>
       <c r="D81" s="5">
         <v>5</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="20"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="19"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="27"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="31"/>
       <c r="D82" s="6">
         <v>6</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="36"/>
-      <c r="J82" s="21"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="20"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="27"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="31"/>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G83" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="31"/>
       <c r="H83" s="16"/>
-      <c r="I83" s="34" t="s">
+      <c r="I83" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="19"/>
+      <c r="J83" s="18"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="27"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="31"/>
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
       <c r="H84" s="17"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="20"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="19"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="27"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="31"/>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
       <c r="H85" s="17"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="20"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="19"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="27"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="31"/>
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="20"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="19"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="27"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="31"/>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="20"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="19"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="27"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="6">
         <v>6</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="19"/>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="27"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G89" s="14"/>
+        <v>73</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="31"/>
       <c r="H89" s="16"/>
-      <c r="I89" s="34" t="s">
+      <c r="I89" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="19"/>
+      <c r="J89" s="18"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="27"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="10">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="20"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="19"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="27"/>
-      <c r="C91" s="14"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="10">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="20"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="19"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
+      <c r="A92" s="36"/>
       <c r="B92" s="28"/>
-      <c r="C92" s="30"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="10">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
       <c r="H92" s="17"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="20"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="19"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
+      <c r="A93" s="36"/>
       <c r="B93" s="28"/>
-      <c r="C93" s="30"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="10">
         <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
       <c r="H93" s="17"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="20"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="19"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
+      <c r="A94" s="36"/>
       <c r="B94" s="28"/>
-      <c r="C94" s="30"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="11">
         <v>6</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="15"/>
-      <c r="G94" s="14"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="31"/>
       <c r="H94" s="17"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="20"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="19"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
+      <c r="A95" s="36"/>
       <c r="B95" s="28"/>
-      <c r="C95" s="30"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="10">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G95" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G95" s="31"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="34" t="s">
+      <c r="I95" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J95" s="19"/>
+      <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
+      <c r="A96" s="36"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="30"/>
+      <c r="C96" s="32"/>
       <c r="D96" s="10">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
       <c r="H96" s="17"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="20"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="19"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
+      <c r="A97" s="36"/>
       <c r="B97" s="28"/>
-      <c r="C97" s="30"/>
+      <c r="C97" s="32"/>
       <c r="D97" s="10">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
       <c r="H97" s="17"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="20"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="19"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
+      <c r="A98" s="36"/>
       <c r="B98" s="28"/>
-      <c r="C98" s="30"/>
+      <c r="C98" s="32"/>
       <c r="D98" s="10">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
       <c r="H98" s="17"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="20"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="19"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
+      <c r="A99" s="36"/>
       <c r="B99" s="28"/>
-      <c r="C99" s="30"/>
+      <c r="C99" s="32"/>
       <c r="D99" s="10">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
       <c r="H99" s="17"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="20"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="19"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="29"/>
-      <c r="C100" s="31"/>
+      <c r="C100" s="33"/>
       <c r="D100" s="11">
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
       <c r="H100" s="17"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="20"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="19"/>
     </row>
     <row r="101" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2688,7 +2709,7 @@
       <c r="H101" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="37" t="s">
+      <c r="I101" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J101" s="12" t="s">
@@ -2700,449 +2721,450 @@
         <v>14</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="3">
         <v>1</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="H102" s="16"/>
-      <c r="I102" s="34" t="s">
+      <c r="I102" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="19"/>
+      <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="27"/>
-      <c r="C103" s="14"/>
+      <c r="C103" s="31"/>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
       <c r="H103" s="17"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="20"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="19"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="27"/>
-      <c r="C104" s="14"/>
+      <c r="C104" s="31"/>
       <c r="D104" s="5">
         <v>3</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
       <c r="H104" s="17"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="20"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="19"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="27"/>
-      <c r="C105" s="14"/>
+      <c r="C105" s="31"/>
       <c r="D105" s="5">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
       <c r="H105" s="17"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="20"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="19"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="27"/>
-      <c r="C106" s="14"/>
+      <c r="C106" s="31"/>
       <c r="D106" s="5">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
       <c r="H106" s="17"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="20"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="19"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="27"/>
-      <c r="C107" s="14"/>
+      <c r="C107" s="31"/>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="36"/>
-      <c r="J107" s="21"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="20"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="27"/>
-      <c r="C108" s="14"/>
+      <c r="C108" s="31"/>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G108" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G108" s="31"/>
       <c r="H108" s="16"/>
-      <c r="I108" s="34" t="s">
+      <c r="I108" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J108" s="19"/>
+      <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="27"/>
-      <c r="C109" s="14"/>
+      <c r="C109" s="31"/>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
       <c r="H109" s="17"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="20"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="19"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="27"/>
-      <c r="C110" s="14"/>
+      <c r="C110" s="31"/>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
       <c r="H110" s="17"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="20"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="19"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="27"/>
-      <c r="C111" s="14"/>
+      <c r="C111" s="31"/>
       <c r="D111" s="5">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
       <c r="H111" s="17"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="20"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="19"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="27"/>
-      <c r="C112" s="14"/>
+      <c r="C112" s="31"/>
       <c r="D112" s="5">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
       <c r="H112" s="17"/>
-      <c r="I112" s="35"/>
-      <c r="J112" s="20"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="19"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="27"/>
-      <c r="C113" s="14"/>
+      <c r="C113" s="31"/>
       <c r="D113" s="6">
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="15"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="19"/>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="27"/>
-      <c r="C114" s="14"/>
+      <c r="C114" s="31"/>
       <c r="D114" s="3">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G114" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="F114" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="31"/>
       <c r="H114" s="16"/>
-      <c r="I114" s="34" t="s">
+      <c r="I114" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J114" s="19"/>
+      <c r="J114" s="18"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="27"/>
-      <c r="C115" s="14"/>
+      <c r="C115" s="31"/>
       <c r="D115" s="5">
         <v>2</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
       <c r="H115" s="17"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="20"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="19"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="27"/>
-      <c r="C116" s="14"/>
+      <c r="C116" s="31"/>
       <c r="D116" s="5">
         <v>3</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
       <c r="H116" s="17"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="20"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="19"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
+      <c r="A117" s="36"/>
       <c r="B117" s="28"/>
-      <c r="C117" s="30"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="5">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
       <c r="H117" s="17"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="20"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="19"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
+      <c r="A118" s="36"/>
       <c r="B118" s="28"/>
-      <c r="C118" s="30"/>
+      <c r="C118" s="32"/>
       <c r="D118" s="5">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
       <c r="H118" s="17"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="20"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="19"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
+      <c r="A119" s="36"/>
       <c r="B119" s="28"/>
-      <c r="C119" s="30"/>
+      <c r="C119" s="32"/>
       <c r="D119" s="11">
         <v>6</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="15"/>
-      <c r="G119" s="14"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="31"/>
       <c r="H119" s="17"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="20"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="19"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
+      <c r="A120" s="36"/>
       <c r="B120" s="28"/>
-      <c r="C120" s="30"/>
+      <c r="C120" s="32"/>
       <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G120" s="31"/>
       <c r="H120" s="16"/>
-      <c r="I120" s="34" t="s">
+      <c r="I120" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J120" s="19"/>
+      <c r="J120" s="18"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
+      <c r="A121" s="36"/>
       <c r="B121" s="28"/>
-      <c r="C121" s="30"/>
+      <c r="C121" s="32"/>
       <c r="D121" s="10">
         <v>2</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
       <c r="H121" s="17"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="20"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="19"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
+      <c r="A122" s="36"/>
       <c r="B122" s="28"/>
-      <c r="C122" s="30"/>
+      <c r="C122" s="32"/>
       <c r="D122" s="10">
         <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
       <c r="H122" s="17"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="20"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="19"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
+      <c r="A123" s="36"/>
       <c r="B123" s="28"/>
-      <c r="C123" s="30"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="10">
         <v>4</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
       <c r="H123" s="17"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="20"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="19"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="28"/>
-      <c r="C124" s="30"/>
+      <c r="C124" s="32"/>
       <c r="D124" s="10">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
       <c r="H124" s="17"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="20"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="19"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="25"/>
+      <c r="A125" s="37"/>
       <c r="B125" s="29"/>
-      <c r="C125" s="31"/>
+      <c r="C125" s="33"/>
       <c r="D125" s="6">
         <v>6</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="36"/>
-      <c r="J125" s="21"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="I89:I94"/>
-    <mergeCell ref="I95:I100"/>
-    <mergeCell ref="H89:H94"/>
-    <mergeCell ref="H95:H100"/>
-    <mergeCell ref="J89:J94"/>
-    <mergeCell ref="J95:J100"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="J45:J50"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C25"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G25"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="A27:A50"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="C27:C50"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="I64:I69"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="H64:H69"/>
-    <mergeCell ref="H70:H75"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G100"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="I102:I107"/>
+    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="G27:G50"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="H33:H38"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="I39:I44"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="G102:G125"/>
+    <mergeCell ref="I114:I119"/>
+    <mergeCell ref="I120:I125"/>
+    <mergeCell ref="H114:H119"/>
+    <mergeCell ref="H120:H125"/>
+    <mergeCell ref="J114:J119"/>
+    <mergeCell ref="J120:J125"/>
+    <mergeCell ref="F120:F125"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="A102:A125"/>
+    <mergeCell ref="B102:B125"/>
+    <mergeCell ref="C102:C125"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="F108:F113"/>
     <mergeCell ref="J64:J69"/>
     <mergeCell ref="J70:J75"/>
     <mergeCell ref="J77:J82"/>
@@ -3159,52 +3181,51 @@
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="F52:F57"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="H64:H69"/>
+    <mergeCell ref="H70:H75"/>
     <mergeCell ref="G52:G75"/>
     <mergeCell ref="H52:H57"/>
-    <mergeCell ref="F120:F125"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="A102:A125"/>
-    <mergeCell ref="B102:B125"/>
-    <mergeCell ref="C102:C125"/>
-    <mergeCell ref="F102:F107"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="I108:I113"/>
-    <mergeCell ref="J108:J113"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="G102:G125"/>
-    <mergeCell ref="I114:I119"/>
-    <mergeCell ref="I120:I125"/>
-    <mergeCell ref="H114:H119"/>
-    <mergeCell ref="H120:H125"/>
-    <mergeCell ref="J114:J119"/>
-    <mergeCell ref="J120:J125"/>
+    <mergeCell ref="A27:A50"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="C27:C50"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G25"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
     <mergeCell ref="J33:J38"/>
-    <mergeCell ref="F33:F38"/>
     <mergeCell ref="H27:H32"/>
     <mergeCell ref="I27:I32"/>
     <mergeCell ref="J27:J32"/>
-    <mergeCell ref="G27:G50"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="F39:F44"/>
-    <mergeCell ref="H33:H38"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="I39:I44"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="I102:I107"/>
-    <mergeCell ref="J102:J107"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G100"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="I89:I94"/>
+    <mergeCell ref="I95:I100"/>
+    <mergeCell ref="H89:H94"/>
+    <mergeCell ref="H95:H100"/>
+    <mergeCell ref="J89:J94"/>
+    <mergeCell ref="J95:J100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2 задание/Часть 2, тест кейсы.xlsx
+++ b/2 задание/Часть 2, тест кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D22952-545F-4E0D-ACDA-28B4E7F98E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BF9497-DCBC-4BE7-BE46-0A9E102F0501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="87">
   <si>
     <t xml:space="preserve"> id тест-кейса</t>
   </si>
@@ -319,6 +319,13 @@
   </si>
   <si>
     <t>В поле "часы" ввести "11"</t>
+  </si>
+  <si>
+    <t>yandexroute_6</t>
+  </si>
+  <si>
+    <t>Адрес "Откуда" равен адресу "Куда"
+A=B</t>
   </si>
 </sst>
 </file>
@@ -391,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -464,11 +471,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -509,17 +556,53 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,9 +613,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,49 +620,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556F1DA-8C8D-4DB3-962A-399570015D53}">
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,13 +1043,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3">
@@ -966,397 +1058,397 @@
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="31"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="19"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="31"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="19"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="19"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="19"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="31"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="20"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="14" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="19"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="5">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="19"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="19"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="19"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="14" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="31"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="19"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="31"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="19"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="5">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="19"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="19"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="11">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="19"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="10">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="19"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="32"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="10">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="19"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="10">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="19"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="11">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1391,13 +1483,13 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="9">
@@ -1406,403 +1498,403 @@
       <c r="E27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="14" t="s">
+      <c r="H27" s="21"/>
+      <c r="I27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="10">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="19"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="19"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="19"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="10">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="19"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="11">
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="20"/>
-      <c r="M32" s="38"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="32"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="14" t="s">
+      <c r="G33" s="28"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="M33" s="38"/>
+      <c r="J33" s="30"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="31"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="19"/>
-      <c r="M34" s="38"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="31"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="19"/>
-      <c r="M35" s="38"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="31"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="19"/>
-      <c r="M36" s="38"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="31"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="31"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="5">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="19"/>
-      <c r="M37" s="38"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="31"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="31"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="31"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="14" t="s">
+      <c r="G39" s="28"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="18"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="28"/>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="19"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="31"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="19"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="19"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="31"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="5">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="19"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="11">
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="F45" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="31"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="14" t="s">
+      <c r="G45" s="28"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="19"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="32"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="19"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="31"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="32"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="10">
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="19"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="32"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="10">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="19"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="31"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="32"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="10">
         <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="19"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="31"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="33"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="6">
         <v>6</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1837,13 +1929,13 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
@@ -1852,397 +1944,397 @@
       <c r="E52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="30" t="s">
+      <c r="F52" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="14" t="s">
+      <c r="H52" s="21"/>
+      <c r="I52" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="18"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="19"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="31"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="31"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="19"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="31"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="31"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="19"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="31"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="31"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="5">
         <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="19"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="31"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="31"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="32"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="31"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="31"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="14" t="s">
+      <c r="G58" s="28"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="18"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="31"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="19"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="31"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="31"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="19"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="31"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="31"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="19"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="31"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="31"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="19"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="31"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="31"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="6">
         <v>6</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="35"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="19"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="31"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="31"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="14" t="s">
+      <c r="G64" s="28"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="18"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="31"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="19"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="31"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="31"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="19"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="31"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="32"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="19"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="31"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="32"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="19"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="31"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="32"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="11">
         <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="19"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="31"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="32"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="10">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="F70" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="14" t="s">
+      <c r="G70" s="28"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="18"/>
+      <c r="J70" s="30"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="32"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="10">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="19"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="31"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="32"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="41"/>
       <c r="D72" s="10">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="19"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="31"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="32"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="10">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="19"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="31"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="36"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="32"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="10">
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="19"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="31"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="33"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="6">
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="19"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="31"/>
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2277,13 +2369,13 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3">
@@ -2292,397 +2384,397 @@
       <c r="E77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="14" t="s">
+      <c r="H77" s="21"/>
+      <c r="I77" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="18"/>
+      <c r="J77" s="30"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="31"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="5">
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="19"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="31"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="31"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="19"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="31"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="31"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="28"/>
       <c r="D80" s="5">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="19"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="31"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="31"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="28"/>
       <c r="D81" s="5">
         <v>5</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="19"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="31"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="31"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="6">
         <v>6</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="35"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="32"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="31"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="28"/>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F83" s="30" t="s">
+      <c r="F83" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="14" t="s">
+      <c r="G83" s="28"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="18"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="31"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="28"/>
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="19"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="31"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="31"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="19"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="31"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="31"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="19"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="31"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="31"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="19"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="31"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="31"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="6">
         <v>6</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="35"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="19"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="31"/>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="31"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F89" s="30" t="s">
+      <c r="F89" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="31"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="14" t="s">
+      <c r="G89" s="28"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="18"/>
+      <c r="J89" s="30"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="31"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="10">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="19"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="31"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="31"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="10">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="19"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="31"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="36"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="32"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="10">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="19"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="31"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="36"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="32"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="10">
         <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="19"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="31"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="36"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="11">
         <v>6</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="19"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="31"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="32"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="41"/>
       <c r="D95" s="10">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F95" s="31" t="s">
+      <c r="F95" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="31"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="14" t="s">
+      <c r="G95" s="28"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J95" s="18"/>
+      <c r="J95" s="30"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="32"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="41"/>
       <c r="D96" s="10">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="19"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="31"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="32"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="41"/>
       <c r="D97" s="10">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="19"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="31"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="32"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="41"/>
       <c r="D98" s="10">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="19"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="31"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="32"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="41"/>
       <c r="D99" s="10">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="19"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="31"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="33"/>
+      <c r="A100" s="36"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="11">
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="19"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="31"/>
     </row>
     <row r="101" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2717,13 +2809,13 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="26" t="s">
+      <c r="B102" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="3">
@@ -2732,409 +2824,706 @@
       <c r="E102" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F102" s="30" t="s">
+      <c r="F102" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G102" s="30" t="s">
+      <c r="G102" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H102" s="16"/>
-      <c r="I102" s="14" t="s">
+      <c r="H102" s="21"/>
+      <c r="I102" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="18"/>
+      <c r="J102" s="30"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="31"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="28"/>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="19"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="31"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="31"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="28"/>
       <c r="D104" s="5">
         <v>3</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="19"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="31"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="31"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="28"/>
       <c r="D105" s="5">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="19"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="31"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="31"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="28"/>
       <c r="D106" s="5">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="19"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="31"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="31"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="28"/>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="35"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="32"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="31"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="28"/>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F108" s="30" t="s">
+      <c r="F108" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="G108" s="31"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="14" t="s">
+      <c r="G108" s="28"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J108" s="18"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="31"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="28"/>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="19"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="31"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="31"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="28"/>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="19"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="31"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="31"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="38"/>
+      <c r="C111" s="28"/>
       <c r="D111" s="5">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="19"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="31"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="31"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="5">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="19"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="31"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="31"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="28"/>
       <c r="D113" s="6">
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="19"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="31"/>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="31"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="38"/>
+      <c r="C114" s="28"/>
       <c r="D114" s="3">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F114" s="30" t="s">
+      <c r="F114" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G114" s="31"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="14" t="s">
+      <c r="G114" s="28"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J114" s="18"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="31"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="38"/>
+      <c r="C115" s="28"/>
       <c r="D115" s="5">
         <v>2</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="19"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="31"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="31"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="38"/>
+      <c r="C116" s="28"/>
       <c r="D116" s="5">
         <v>3</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="19"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="31"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="36"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="32"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="39"/>
+      <c r="C117" s="41"/>
       <c r="D117" s="5">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="19"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="31"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="32"/>
+      <c r="A118" s="35"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="5">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="19"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="31"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="32"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="11">
         <v>6</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="35"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="19"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="31"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="32"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F120" s="31" t="s">
+      <c r="F120" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="31"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="14" t="s">
+      <c r="G120" s="28"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J120" s="18"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="32"/>
+      <c r="A121" s="35"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="10">
         <v>2</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="19"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="31"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="36"/>
-      <c r="B122" s="28"/>
-      <c r="C122" s="32"/>
+      <c r="A122" s="35"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="10">
         <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="19"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="31"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="36"/>
-      <c r="B123" s="28"/>
-      <c r="C123" s="32"/>
+      <c r="A123" s="35"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="41"/>
       <c r="D123" s="10">
         <v>4</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="19"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="31"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="36"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="32"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="41"/>
       <c r="D124" s="10">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="19"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="31"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="33"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="42"/>
       <c r="D125" s="6">
         <v>6</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="21"/>
-      <c r="I125" s="34"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="26"/>
+      <c r="J125" s="32"/>
+    </row>
+    <row r="126" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J126" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="16">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H127" s="21"/>
+      <c r="I127" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" s="30"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="52"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="17">
+        <v>2</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="31"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="52"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="17">
+        <v>3</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="31"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="52"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="17">
+        <v>4</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="31"/>
+    </row>
+    <row r="131" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="52"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="17">
+        <v>4</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="31"/>
+    </row>
+    <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="52"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="18">
+        <v>6</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="32"/>
+    </row>
+    <row r="133" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="48"/>
+      <c r="B133" s="46"/>
+      <c r="C133" s="45"/>
+    </row>
+    <row r="134" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="48"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="45"/>
+    </row>
+    <row r="135" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="48"/>
+      <c r="B135" s="46"/>
+      <c r="C135" s="45"/>
+    </row>
+    <row r="136" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="48"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="45"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="48"/>
+      <c r="B137" s="46"/>
+      <c r="C137" s="45"/>
+    </row>
+    <row r="138" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="48"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="45"/>
+    </row>
+    <row r="139" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="48"/>
+      <c r="B139" s="46"/>
+      <c r="C139" s="45"/>
+    </row>
+    <row r="140" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="48"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="14"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="48"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="14"/>
+    </row>
+    <row r="142" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="48"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="14"/>
+    </row>
+    <row r="143" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="48"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="14"/>
+    </row>
+    <row r="144" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="48"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="48"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="14"/>
+    </row>
+    <row r="146" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="48"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="14"/>
+    </row>
+    <row r="147" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="48"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="14"/>
+    </row>
+    <row r="148" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="48"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="15"/>
+    </row>
+    <row r="149" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="48"/>
+      <c r="B149" s="19"/>
+    </row>
+    <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="F77:F82"/>
-    <mergeCell ref="G77:G100"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="F89:F94"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="I83:I88"/>
+  <mergeCells count="108">
+    <mergeCell ref="F127:F132"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A127:A132"/>
+    <mergeCell ref="H127:H132"/>
+    <mergeCell ref="I127:I132"/>
+    <mergeCell ref="J127:J132"/>
+    <mergeCell ref="G127:G132"/>
+    <mergeCell ref="J89:J94"/>
+    <mergeCell ref="J95:J100"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G25"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="A27:A50"/>
+    <mergeCell ref="B27:B50"/>
+    <mergeCell ref="C27:C50"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="H64:H69"/>
+    <mergeCell ref="H70:H75"/>
+    <mergeCell ref="G52:G75"/>
+    <mergeCell ref="H52:H57"/>
+    <mergeCell ref="J52:J57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="H58:H63"/>
+    <mergeCell ref="I58:I63"/>
+    <mergeCell ref="J58:J63"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="A52:A75"/>
+    <mergeCell ref="B52:B75"/>
+    <mergeCell ref="C52:C75"/>
+    <mergeCell ref="A77:A100"/>
+    <mergeCell ref="B77:B100"/>
+    <mergeCell ref="C77:C100"/>
+    <mergeCell ref="F120:F125"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="A102:A125"/>
+    <mergeCell ref="B102:B125"/>
+    <mergeCell ref="C102:C125"/>
+    <mergeCell ref="F102:F107"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="G102:G125"/>
+    <mergeCell ref="I114:I119"/>
+    <mergeCell ref="I120:I125"/>
+    <mergeCell ref="H114:H119"/>
+    <mergeCell ref="H120:H125"/>
+    <mergeCell ref="J114:J119"/>
+    <mergeCell ref="J120:J125"/>
     <mergeCell ref="I102:I107"/>
     <mergeCell ref="J102:J107"/>
     <mergeCell ref="J83:J88"/>
@@ -3147,85 +3536,23 @@
     <mergeCell ref="I45:I50"/>
     <mergeCell ref="H39:H44"/>
     <mergeCell ref="H45:H50"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="I108:I113"/>
-    <mergeCell ref="J108:J113"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="G102:G125"/>
-    <mergeCell ref="I114:I119"/>
-    <mergeCell ref="I120:I125"/>
-    <mergeCell ref="H114:H119"/>
-    <mergeCell ref="H120:H125"/>
-    <mergeCell ref="J114:J119"/>
-    <mergeCell ref="J120:J125"/>
-    <mergeCell ref="F120:F125"/>
-    <mergeCell ref="F114:F119"/>
-    <mergeCell ref="A102:A125"/>
-    <mergeCell ref="B102:B125"/>
-    <mergeCell ref="C102:C125"/>
-    <mergeCell ref="F102:F107"/>
-    <mergeCell ref="F108:F113"/>
     <mergeCell ref="J64:J69"/>
     <mergeCell ref="J70:J75"/>
     <mergeCell ref="J77:J82"/>
-    <mergeCell ref="A52:A75"/>
-    <mergeCell ref="B52:B75"/>
-    <mergeCell ref="C52:C75"/>
-    <mergeCell ref="A77:A100"/>
-    <mergeCell ref="B77:B100"/>
-    <mergeCell ref="C77:C100"/>
     <mergeCell ref="I52:I57"/>
-    <mergeCell ref="J52:J57"/>
-    <mergeCell ref="F58:F63"/>
-    <mergeCell ref="H58:H63"/>
-    <mergeCell ref="I58:I63"/>
-    <mergeCell ref="J58:J63"/>
-    <mergeCell ref="F52:F57"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="I64:I69"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="H64:H69"/>
-    <mergeCell ref="H70:H75"/>
-    <mergeCell ref="G52:G75"/>
-    <mergeCell ref="H52:H57"/>
-    <mergeCell ref="A27:A50"/>
-    <mergeCell ref="B27:B50"/>
-    <mergeCell ref="C27:C50"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F33:F38"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C2:C25"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G25"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="J45:J50"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="F77:F82"/>
+    <mergeCell ref="G77:G100"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="F89:F94"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="I83:I88"/>
     <mergeCell ref="I89:I94"/>
     <mergeCell ref="I95:I100"/>
     <mergeCell ref="H89:H94"/>
     <mergeCell ref="H95:H100"/>
-    <mergeCell ref="J89:J94"/>
-    <mergeCell ref="J95:J100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2 задание/Часть 2, тест кейсы.xlsx
+++ b/2 задание/Часть 2, тест кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BF9497-DCBC-4BE7-BE46-0A9E102F0501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74AD82-969B-4D7B-8BC7-2D78840F28D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
   </bookViews>
@@ -577,12 +577,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,21 +619,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,31 +658,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556F1DA-8C8D-4DB3-962A-399570015D53}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127:H132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,13 +1043,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="3">
@@ -1058,397 +1058,397 @@
       <c r="E2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="24" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="28"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="31"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="31"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="31"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="5">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="31"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="32"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="31"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="5">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="31"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="5">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="31"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="6">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="28"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="24" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="31"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="5">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="31"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="5">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="31"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="31"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="11">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="24" t="s">
+      <c r="G20" s="29"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="10">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="31"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="10">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="31"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="41"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="10">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="31"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="41"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="10">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="11">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1483,13 +1483,13 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="9">
@@ -1498,403 +1498,403 @@
       <c r="E27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="24" t="s">
+      <c r="H27" s="24"/>
+      <c r="I27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="10">
         <v>2</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="31"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="27"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="10">
         <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="31"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="27"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="10">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="31"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="10">
         <v>5</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="31"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="27"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="11">
         <v>6</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="32"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="24" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="30"/>
+      <c r="J33" s="26"/>
       <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="31"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="27"/>
       <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="5">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="31"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="27"/>
       <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="5">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="31"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="27"/>
       <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="5">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="31"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="27"/>
       <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="6">
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="32"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="24" t="s">
+      <c r="G39" s="29"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="30"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="28"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="5">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="31"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="31"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="41"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="5">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="31"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="41"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="5">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="31"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="41"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="11">
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="32"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="41"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="10">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="24" t="s">
+      <c r="G45" s="29"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="31"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="41"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="44"/>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="31"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="10">
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="31"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="41"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="10">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="31"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="41"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="10">
         <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="31"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="6">
         <v>6</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="32"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="35"/>
     </row>
     <row r="51" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1929,13 +1929,13 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3">
@@ -1944,397 +1944,397 @@
       <c r="E52" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="21"/>
-      <c r="I52" s="24" t="s">
+      <c r="H52" s="24"/>
+      <c r="I52" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="30"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="28"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="5">
         <v>2</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="31"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="5">
         <v>3</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="31"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="31"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="27"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="5">
         <v>5</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="31"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="27"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="32"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="35"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="28"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="3">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="24" t="s">
+      <c r="G58" s="29"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="30"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="28"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="31"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="27"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="28"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="31"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="27"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="28"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="31"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="27"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="28"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="5">
         <v>5</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="31"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="27"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="28"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="6">
         <v>6</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="31"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="27"/>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="28"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="3">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="24" t="s">
+      <c r="G64" s="29"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="30"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="28"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="31"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="27"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="28"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="31"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="27"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="41"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="44"/>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="31"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="27"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="41"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="31"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="27"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="41"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="44"/>
       <c r="D69" s="11">
         <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="31"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="27"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="41"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="44"/>
       <c r="D70" s="10">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G70" s="28"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="24" t="s">
+      <c r="G70" s="29"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="30"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="41"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="44"/>
       <c r="D71" s="10">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="31"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="27"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="41"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="44"/>
       <c r="D72" s="10">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="31"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="27"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="41"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="44"/>
       <c r="D73" s="10">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="31"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="27"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="41"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="44"/>
       <c r="D74" s="10">
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="31"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="27"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="36"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="42"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="6">
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="31"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="27"/>
     </row>
     <row r="76" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2369,13 +2369,13 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D77" s="3">
@@ -2384,397 +2384,397 @@
       <c r="E77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F77" s="27" t="s">
+      <c r="F77" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="27" t="s">
+      <c r="G77" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="24" t="s">
+      <c r="H77" s="24"/>
+      <c r="I77" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="30"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="28"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="29"/>
       <c r="D78" s="5">
         <v>2</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="31"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="27"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="28"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="29"/>
       <c r="D79" s="5">
         <v>3</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="31"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="27"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="28"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="5">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="31"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="27"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="28"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="5">
         <v>5</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="31"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="27"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="28"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="6">
         <v>6</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="32"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="28"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="3">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G83" s="28"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="24" t="s">
+      <c r="G83" s="29"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="30"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="28"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="5">
         <v>2</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="31"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="27"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="28"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="5">
         <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="31"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="27"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="28"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="29"/>
       <c r="D86" s="5">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="31"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="27"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="28"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="5">
         <v>5</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="31"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="27"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="28"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="29"/>
       <c r="D88" s="6">
         <v>6</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="31"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="27"/>
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="28"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="9">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F89" s="27" t="s">
+      <c r="F89" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="28"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="24" t="s">
+      <c r="G89" s="29"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J89" s="30"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="28"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="29"/>
       <c r="D90" s="10">
         <v>2</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="31"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="27"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="10">
         <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="31"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="27"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="41"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="44"/>
       <c r="D92" s="10">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="31"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="27"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="41"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="44"/>
       <c r="D93" s="10">
         <v>5</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="31"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="27"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="41"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="44"/>
       <c r="D94" s="11">
         <v>6</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="29"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="31"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="27"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="41"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="44"/>
       <c r="D95" s="10">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G95" s="28"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="24" t="s">
+      <c r="G95" s="29"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J95" s="30"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="41"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="44"/>
       <c r="D96" s="10">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="31"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="27"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="35"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="41"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="44"/>
       <c r="D97" s="10">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="31"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="27"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="41"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="44"/>
       <c r="D98" s="10">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="31"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="27"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="41"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="44"/>
       <c r="D99" s="10">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="31"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="27"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="42"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="45"/>
       <c r="D100" s="11">
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="31"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="27"/>
     </row>
     <row r="101" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2809,13 +2809,13 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="3">
@@ -2824,397 +2824,397 @@
       <c r="E102" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F102" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G102" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H102" s="21"/>
-      <c r="I102" s="24" t="s">
+      <c r="H102" s="24"/>
+      <c r="I102" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="30"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="28"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="29"/>
       <c r="D103" s="5">
         <v>2</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="31"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="27"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="28"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="29"/>
       <c r="D104" s="5">
         <v>3</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="31"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="27"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="28"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="29"/>
       <c r="D105" s="5">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="31"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="27"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="28"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="29"/>
       <c r="D106" s="5">
         <v>5</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="31"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="27"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="28"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="29"/>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="32"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="35"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="28"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="29"/>
       <c r="D108" s="3">
         <v>1</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F108" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G108" s="28"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="24" t="s">
+      <c r="G108" s="29"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J108" s="30"/>
+      <c r="J108" s="26"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="28"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="29"/>
       <c r="D109" s="5">
         <v>2</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="31"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="27"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="28"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="29"/>
       <c r="D110" s="5">
         <v>3</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="31"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="27"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="28"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="29"/>
       <c r="D111" s="5">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="31"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="33"/>
+      <c r="J111" s="27"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="28"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="29"/>
       <c r="D112" s="5">
         <v>5</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="31"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="33"/>
+      <c r="J112" s="27"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="28"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="29"/>
       <c r="D113" s="6">
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="29"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="31"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="27"/>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="28"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="29"/>
       <c r="D114" s="3">
         <v>1</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="F114" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G114" s="28"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="24" t="s">
+      <c r="G114" s="29"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J114" s="30"/>
+      <c r="J114" s="26"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="28"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="29"/>
       <c r="D115" s="5">
         <v>2</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="31"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="27"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="28"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="29"/>
       <c r="D116" s="5">
         <v>3</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="31"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="27"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="41"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="44"/>
       <c r="D117" s="5">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="31"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="27"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="41"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="44"/>
       <c r="D118" s="5">
         <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="31"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="27"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="41"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="44"/>
       <c r="D119" s="11">
         <v>6</v>
       </c>
       <c r="E119" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="29"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="31"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="33"/>
+      <c r="J119" s="27"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="41"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="44"/>
       <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F120" s="28" t="s">
+      <c r="F120" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="28"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="24" t="s">
+      <c r="G120" s="29"/>
+      <c r="H120" s="24"/>
+      <c r="I120" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J120" s="30"/>
+      <c r="J120" s="26"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="41"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="44"/>
       <c r="D121" s="10">
         <v>2</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="22"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="31"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="27"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="41"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="44"/>
       <c r="D122" s="10">
         <v>3</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="31"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="27"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="41"/>
+      <c r="A123" s="38"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="44"/>
       <c r="D123" s="10">
         <v>4</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="22"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="31"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="27"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="41"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="44"/>
       <c r="D124" s="10">
         <v>5</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="31"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="27"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="36"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="42"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="45"/>
       <c r="D125" s="6">
         <v>6</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="32"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="35"/>
     </row>
     <row r="126" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -3249,13 +3249,13 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="51" t="s">
+      <c r="A127" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C127" s="49" t="s">
+      <c r="C127" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="16">
@@ -3264,187 +3264,191 @@
       <c r="E127" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F127" s="27" t="s">
+      <c r="F127" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G127" s="27" t="s">
+      <c r="G127" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="H127" s="21"/>
-      <c r="I127" s="24" t="s">
+      <c r="H127" s="24"/>
+      <c r="I127" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J127" s="30"/>
+      <c r="J127" s="26"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="52"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="50"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="49"/>
       <c r="D128" s="17">
         <v>2</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="31"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="33"/>
+      <c r="J128" s="27"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="50"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="49"/>
       <c r="D129" s="17">
         <v>3</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="22"/>
-      <c r="I129" s="25"/>
-      <c r="J129" s="31"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="27"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="52"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="50"/>
+      <c r="A130" s="53"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="17">
         <v>4</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="31"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="27"/>
     </row>
     <row r="131" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="52"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="50"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="49"/>
       <c r="D131" s="17">
         <v>4</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="31"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="27"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="52"/>
-      <c r="B132" s="47"/>
-      <c r="C132" s="53"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="50"/>
       <c r="D132" s="18">
         <v>6</v>
       </c>
       <c r="E132" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="32"/>
+      <c r="F132" s="30"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="35"/>
     </row>
     <row r="133" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="45"/>
+      <c r="A133" s="23"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="21"/>
     </row>
     <row r="134" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="45"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="21"/>
     </row>
     <row r="135" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
-      <c r="B135" s="46"/>
-      <c r="C135" s="45"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="21"/>
     </row>
     <row r="136" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
-      <c r="B136" s="46"/>
-      <c r="C136" s="45"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="21"/>
     </row>
     <row r="137" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="45"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="21"/>
     </row>
     <row r="138" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
-      <c r="B138" s="46"/>
-      <c r="C138" s="45"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="21"/>
     </row>
     <row r="139" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="46"/>
-      <c r="C139" s="45"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="21"/>
     </row>
     <row r="140" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
-      <c r="B140" s="46"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="14"/>
     </row>
     <row r="141" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
-      <c r="B141" s="46"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="14"/>
     </row>
     <row r="142" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="19"/>
       <c r="C142" s="14"/>
     </row>
     <row r="143" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="19"/>
       <c r="C143" s="14"/>
     </row>
     <row r="144" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="23"/>
       <c r="B144" s="19"/>
       <c r="C144" s="14"/>
     </row>
     <row r="145" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="19"/>
       <c r="C145" s="14"/>
     </row>
     <row r="146" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
+      <c r="A146" s="23"/>
       <c r="B146" s="19"/>
       <c r="C146" s="14"/>
     </row>
     <row r="147" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="19"/>
       <c r="C147" s="14"/>
     </row>
     <row r="148" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="19"/>
       <c r="C148" s="15"/>
     </row>
     <row r="149" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="19"/>
     </row>
     <row r="150" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="I95:I100"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="J27:J32"/>
     <mergeCell ref="F127:F132"/>
     <mergeCell ref="C127:C132"/>
     <mergeCell ref="B127:B132"/>
@@ -3455,26 +3459,18 @@
     <mergeCell ref="G127:G132"/>
     <mergeCell ref="J89:J94"/>
     <mergeCell ref="J95:J100"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="J45:J50"/>
-    <mergeCell ref="I14:I19"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="H14:H19"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="J14:J19"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="J27:J32"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G25"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="H108:H113"/>
+    <mergeCell ref="I108:I113"/>
+    <mergeCell ref="J108:J113"/>
+    <mergeCell ref="H102:H107"/>
+    <mergeCell ref="G102:G125"/>
+    <mergeCell ref="I114:I119"/>
+    <mergeCell ref="I120:I125"/>
+    <mergeCell ref="H114:H119"/>
+    <mergeCell ref="H120:H125"/>
+    <mergeCell ref="J114:J119"/>
+    <mergeCell ref="J120:J125"/>
+    <mergeCell ref="I102:I107"/>
     <mergeCell ref="A27:A50"/>
     <mergeCell ref="B27:B50"/>
     <mergeCell ref="C27:C50"/>
@@ -3486,20 +3482,32 @@
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:C25"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="F64:F69"/>
-    <mergeCell ref="I64:I69"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="H64:H69"/>
-    <mergeCell ref="H70:H75"/>
-    <mergeCell ref="G52:G75"/>
-    <mergeCell ref="H52:H57"/>
     <mergeCell ref="J52:J57"/>
     <mergeCell ref="F58:F63"/>
     <mergeCell ref="H58:H63"/>
     <mergeCell ref="I58:I63"/>
     <mergeCell ref="J58:J63"/>
     <mergeCell ref="F52:F57"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G25"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="I14:I19"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="H14:H19"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="J14:J19"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="I89:I94"/>
     <mergeCell ref="A52:A75"/>
     <mergeCell ref="B52:B75"/>
     <mergeCell ref="C52:C75"/>
@@ -3513,19 +3521,16 @@
     <mergeCell ref="C102:C125"/>
     <mergeCell ref="F102:F107"/>
     <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H108:H113"/>
-    <mergeCell ref="I108:I113"/>
-    <mergeCell ref="J108:J113"/>
-    <mergeCell ref="H102:H107"/>
-    <mergeCell ref="G102:G125"/>
-    <mergeCell ref="I114:I119"/>
-    <mergeCell ref="I120:I125"/>
-    <mergeCell ref="H114:H119"/>
-    <mergeCell ref="H120:H125"/>
-    <mergeCell ref="J114:J119"/>
-    <mergeCell ref="J120:J125"/>
-    <mergeCell ref="I102:I107"/>
-    <mergeCell ref="J102:J107"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="F64:F69"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="H64:H69"/>
+    <mergeCell ref="H70:H75"/>
+    <mergeCell ref="G52:G75"/>
+    <mergeCell ref="H52:H57"/>
+    <mergeCell ref="H89:H94"/>
+    <mergeCell ref="H95:H100"/>
     <mergeCell ref="J83:J88"/>
     <mergeCell ref="G27:G50"/>
     <mergeCell ref="F45:F50"/>
@@ -3548,11 +3553,6 @@
     <mergeCell ref="F95:F100"/>
     <mergeCell ref="F89:F94"/>
     <mergeCell ref="H83:H88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="I89:I94"/>
-    <mergeCell ref="I95:I100"/>
-    <mergeCell ref="H89:H94"/>
-    <mergeCell ref="H95:H100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/2 задание/Часть 2, тест кейсы.xlsx
+++ b/2 задание/Часть 2, тест кейсы.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\2 задание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8575656-25A5-4369-BB2A-F32A8A481886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C06E40-82E4-4A1C-ADE5-D459D3574B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8235" yWindow="1440" windowWidth="16515" windowHeight="12570" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBA7AA8D-1AA8-46B9-B1BE-2713377E29E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -190,16 +190,6 @@
     <t>В поле "часы" ввести "08"</t>
   </si>
   <si>
-    <t xml:space="preserve">В информационном блоке отражается: 
-1. Время поездкии: ~ 3 минуты
-Стоимость поездки: 60 рублей </t>
-  </si>
-  <si>
-    <t>В информационном блоке отражается: 
-1. Время поездкии: ~3 минут
-2.Стоимость поездки: 60 рублей</t>
-  </si>
-  <si>
     <t>Windows 10, Google Chrome Версия 89.0.4389.90</t>
   </si>
   <si>
@@ -273,36 +263,6 @@
 2.Стоимость поездки: 38 рублей </t>
   </si>
   <si>
-    <t xml:space="preserve">В информационном блоке отражается: 
-1. Время поездкии: ~ 4 минуты
-Стоимость поездки: 46 рублей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В информационном блоке отражается: 
-1. Время поездкии: ~3,5 минут
-2.Стоимость поездки: 46 рублей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В информационном блоке отражается: 
-1. Время поездкии: ~7 минут
-2.Стоимость поездки: 94 рублей </t>
-  </si>
-  <si>
-    <t xml:space="preserve">В информационном блоке отражается: 
-1. Время поездкии: 2,1 минут
-2.Стоимость поездки: 28 рублей </t>
-  </si>
-  <si>
-    <t>В информационном блоке отражается: 
-1. Время поездкии: 3,3 минут
-2.Стоимость поездки: 44 рубля</t>
-  </si>
-  <si>
-    <t>В информационном блоке отражается: 
-1. Время поездкии: ~2,3 минут
-2.Стоимость поездки: 30 рублей</t>
-  </si>
-  <si>
     <t>В поле "часы" ввести "17"</t>
   </si>
   <si>
@@ -375,6 +335,46 @@
     <t xml:space="preserve">В информационном блоке отражается: 
 1. Время поездкии: 1,8 минут
 2.Стоимость поездки: 24 рублей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В информационном блоке отражается: 
+1. Время поездкии: ~ 3 минуты
+Стоимость поездки: 46 рублей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В информационном блоке отражается: 
+1. Время поездкии: ~ 4 минуты
+Стоимость поездки: 64 рублей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В информационном блоке отражается: 
+1. Время поездкии: 9,4 минут
+2.Стоимость поездки: 94 рублей </t>
+  </si>
+  <si>
+    <t xml:space="preserve">В информационном блоке отражается: 
+1. Время поездкии: 2,8 минут
+2.Стоимость поездки: 28 рублей </t>
+  </si>
+  <si>
+    <t>В информационном блоке отражается: 
+1. Время поездкии: 4,4 минут
+2.Стоимость поездки: 44 рубля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В информационном блоке отражается: 
+1. Время поездкии: 46 минут
+2.Стоимость поездки: 46 рублей </t>
+  </si>
+  <si>
+    <t>В информационном блоке отражается: 
+1. Время поездкии: 3 минут
+2.Стоимость поездки: 30 рублей</t>
+  </si>
+  <si>
+    <t>В информационном блоке отражается: 
+1. Время поездкии: ~8 минут
+2.Стоимость поездки: 79 рублей</t>
   </si>
 </sst>
 </file>
@@ -602,48 +602,81 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,40 +707,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556F1DA-8C8D-4DB3-962A-399570015D53}">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64:F69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150:F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -1086,29 +1086,29 @@
       <c r="C2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="22">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="32"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="47">
+      <c r="D3" s="23">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1116,15 +1116,15 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="32"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="47">
+      <c r="D4" s="23">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1132,15 +1132,15 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="32"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="47">
+      <c r="D5" s="23">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1148,15 +1148,15 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="32"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="47">
+      <c r="D6" s="23">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1164,15 +1164,15 @@
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="23"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="32"/>
       <c r="C7" s="29"/>
-      <c r="D7" s="48">
+      <c r="D7" s="24">
         <v>6</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1180,35 +1180,35 @@
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="32"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="46">
+      <c r="D8" s="22">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="32"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="47">
+      <c r="D9" s="23">
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1216,15 +1216,15 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="23"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="32"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="47">
+      <c r="D10" s="23">
         <v>3</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1232,31 +1232,31 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="32"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="47">
+      <c r="D11" s="23">
         <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="32"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="47">
+      <c r="D12" s="23">
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1264,15 +1264,15 @@
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="32"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="48">
+      <c r="D13" s="24">
         <v>6</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1280,35 +1280,35 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="29"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="32"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="46">
+      <c r="D14" s="22">
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="29"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="25" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="32"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="47">
+      <c r="D15" s="23">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1316,15 +1316,15 @@
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="23"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="32"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="47">
+      <c r="D16" s="23">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1332,31 +1332,31 @@
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="23"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="32"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="47">
+      <c r="D17" s="23">
         <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="23"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="47">
+      <c r="A18" s="55"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="23">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1364,15 +1364,15 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="23"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="48">
+      <c r="A19" s="55"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="24">
         <v>6</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1380,35 +1380,35 @@
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="29"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="24"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="47">
+      <c r="A20" s="55"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="G20" s="29"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="25" t="s">
+      <c r="H20" s="35"/>
+      <c r="I20" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="22"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="47">
+      <c r="A21" s="55"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1416,15 +1416,15 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="23"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="47">
+      <c r="A22" s="55"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="23">
         <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1432,15 +1432,15 @@
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="23"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="47">
+      <c r="A23" s="55"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1448,15 +1448,15 @@
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="23"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="47">
+      <c r="A24" s="55"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="23">
         <v>5</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -1464,15 +1464,15 @@
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="23"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="48">
+      <c r="A25" s="55"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="24">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -1480,67 +1480,67 @@
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="24"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="47">
+      <c r="A26" s="55"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="23">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G26" s="29"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="26" t="s">
+      <c r="H26" s="36"/>
+      <c r="I26" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="47">
+      <c r="A27" s="55"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="23">
         <v>2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="23"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="47">
+      <c r="A28" s="55"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="23">
         <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="23"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="47">
+      <c r="A29" s="55"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="23">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -1548,15 +1548,15 @@
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="23"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="47">
+      <c r="A30" s="55"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="23">
         <v>5</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -1564,15 +1564,15 @@
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="23"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="48">
+      <c r="A31" s="56"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="24">
         <v>6</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -1580,9 +1580,9 @@
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="24"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1617,7 +1617,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="47" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="31" t="s">
@@ -1626,29 +1626,29 @@
       <c r="C33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="22">
         <v>1</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="22"/>
+      <c r="J33" s="41"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="32"/>
       <c r="C34" s="29"/>
-      <c r="D34" s="47">
+      <c r="D34" s="23">
         <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -1656,15 +1656,15 @@
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="23"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="32"/>
       <c r="C35" s="29"/>
-      <c r="D35" s="47">
+      <c r="D35" s="23">
         <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -1672,15 +1672,15 @@
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="23"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="32"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="47">
+      <c r="D36" s="23">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
@@ -1688,15 +1688,15 @@
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="23"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="32"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="47">
+      <c r="D37" s="23">
         <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
@@ -1704,15 +1704,15 @@
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="23"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="32"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="48">
+      <c r="D38" s="24">
         <v>6</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -1720,71 +1720,71 @@
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="24"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
       <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="32"/>
       <c r="C39" s="29"/>
-      <c r="D39" s="46">
+      <c r="D39" s="22">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G39" s="29"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="25" t="s">
+      <c r="H39" s="35"/>
+      <c r="I39" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="22"/>
+      <c r="J39" s="41"/>
       <c r="M39" s="17"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="32"/>
       <c r="C40" s="29"/>
-      <c r="D40" s="47">
+      <c r="D40" s="23">
         <v>2</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="23"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="42"/>
       <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="32"/>
       <c r="C41" s="29"/>
-      <c r="D41" s="47">
+      <c r="D41" s="23">
         <v>3</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="23"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="42"/>
       <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="32"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="47">
+      <c r="D42" s="23">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
@@ -1792,16 +1792,16 @@
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="23"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="42"/>
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="32"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="47">
+      <c r="D43" s="23">
         <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -1809,16 +1809,16 @@
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="23"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="42"/>
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="32"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="48">
+      <c r="D44" s="24">
         <v>6</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -1826,35 +1826,35 @@
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="29"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="24"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="32"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="46">
+      <c r="D45" s="22">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G45" s="29"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="25" t="s">
+      <c r="H45" s="35"/>
+      <c r="I45" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="22"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="32"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="47">
+      <c r="D46" s="23">
         <v>2</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -1862,31 +1862,31 @@
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="23"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="32"/>
       <c r="C47" s="29"/>
-      <c r="D47" s="47">
+      <c r="D47" s="23">
         <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="23"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="47">
+      <c r="A48" s="49"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="23">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -1894,15 +1894,15 @@
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="23"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="47">
+      <c r="A49" s="49"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="23">
         <v>5</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -1910,15 +1910,15 @@
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="23"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="48">
+      <c r="A50" s="49"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="24">
         <v>6</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -1926,35 +1926,35 @@
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="29"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="24"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="47">
+      <c r="A51" s="49"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="23">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G51" s="29"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="25" t="s">
+      <c r="H51" s="35"/>
+      <c r="I51" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J51" s="22"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="47">
+      <c r="A52" s="49"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="23">
         <v>2</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -1962,15 +1962,15 @@
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="23"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="47">
+      <c r="A53" s="49"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="23">
         <v>3</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -1978,15 +1978,15 @@
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="23"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="47">
+      <c r="A54" s="49"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="23">
         <v>4</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -1994,15 +1994,15 @@
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="23"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="38"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="47">
+      <c r="A55" s="49"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="23">
         <v>5</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -2010,15 +2010,15 @@
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="23"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="48">
+      <c r="A56" s="49"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="24">
         <v>6</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -2026,35 +2026,35 @@
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="24"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="47">
+      <c r="A57" s="49"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="23">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G57" s="29"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="26" t="s">
+      <c r="H57" s="36"/>
+      <c r="I57" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="23"/>
+      <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="38"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="47">
+      <c r="A58" s="49"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="23">
         <v>2</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -2062,15 +2062,15 @@
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="23"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="38"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="47">
+      <c r="A59" s="49"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="23">
         <v>3</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -2078,31 +2078,31 @@
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="23"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="38"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="47">
+      <c r="A60" s="49"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="23">
         <v>4</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="29"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="23"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="38"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="47">
+      <c r="A61" s="49"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="23">
         <v>5</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -2110,15 +2110,15 @@
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="29"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="23"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="48">
+      <c r="A62" s="50"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="24">
         <v>6</v>
       </c>
       <c r="E62" s="7" t="s">
@@ -2126,9 +2126,9 @@
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="24"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="46"/>
     </row>
     <row r="63" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="31" t="s">
@@ -2172,29 +2172,29 @@
       <c r="C64" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="46">
+      <c r="D64" s="22">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H64" s="33"/>
-      <c r="I64" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="35"/>
+      <c r="I64" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J64" s="22"/>
+      <c r="J64" s="41"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="32"/>
       <c r="C65" s="29"/>
-      <c r="D65" s="47">
+      <c r="D65" s="23">
         <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -2202,31 +2202,31 @@
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="29"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="23"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="32"/>
       <c r="C66" s="29"/>
-      <c r="D66" s="47">
+      <c r="D66" s="23">
         <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="23"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="32"/>
       <c r="C67" s="29"/>
-      <c r="D67" s="47">
+      <c r="D67" s="23">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -2234,15 +2234,15 @@
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="23"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="32"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="47">
+      <c r="D68" s="23">
         <v>5</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -2250,15 +2250,15 @@
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="29"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="23"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="32"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="48">
+      <c r="D69" s="24">
         <v>6</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -2266,35 +2266,35 @@
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="24"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="46"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="32"/>
       <c r="C70" s="29"/>
-      <c r="D70" s="46">
+      <c r="D70" s="22">
         <v>1</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G70" s="29"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="25" t="s">
+      <c r="H70" s="35"/>
+      <c r="I70" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="22"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="32"/>
       <c r="C71" s="29"/>
-      <c r="D71" s="47">
+      <c r="D71" s="23">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -2302,15 +2302,15 @@
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="29"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="23"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="32"/>
       <c r="C72" s="29"/>
-      <c r="D72" s="47">
+      <c r="D72" s="23">
         <v>3</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -2318,15 +2318,15 @@
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="23"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="32"/>
       <c r="C73" s="29"/>
-      <c r="D73" s="47">
+      <c r="D73" s="23">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -2334,15 +2334,15 @@
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="23"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="32"/>
       <c r="C74" s="29"/>
-      <c r="D74" s="47">
+      <c r="D74" s="23">
         <v>5</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -2350,15 +2350,15 @@
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="23"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="32"/>
       <c r="C75" s="29"/>
-      <c r="D75" s="48">
+      <c r="D75" s="24">
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -2366,35 +2366,35 @@
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="23"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="32"/>
       <c r="C76" s="29"/>
-      <c r="D76" s="46">
+      <c r="D76" s="22">
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G76" s="29"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="25" t="s">
+      <c r="H76" s="35"/>
+      <c r="I76" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="22"/>
+      <c r="J76" s="41"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="32"/>
       <c r="C77" s="29"/>
-      <c r="D77" s="47">
+      <c r="D77" s="23">
         <v>2</v>
       </c>
       <c r="E77" s="4" t="s">
@@ -2402,15 +2402,15 @@
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="29"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="23"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="32"/>
       <c r="C78" s="29"/>
-      <c r="D78" s="47">
+      <c r="D78" s="23">
         <v>3</v>
       </c>
       <c r="E78" s="4" t="s">
@@ -2418,15 +2418,15 @@
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="23"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="47">
+      <c r="A79" s="49"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="23">
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -2434,15 +2434,15 @@
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="29"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="23"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="47">
+      <c r="A80" s="49"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="23">
         <v>5</v>
       </c>
       <c r="E80" s="4" t="s">
@@ -2450,15 +2450,15 @@
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="29"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="23"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="48">
+      <c r="A81" s="49"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="24">
         <v>6</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -2466,35 +2466,35 @@
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="29"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="23"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="47">
+      <c r="A82" s="49"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="23">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G82" s="29"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="25" t="s">
+      <c r="H82" s="35"/>
+      <c r="I82" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J82" s="22"/>
+      <c r="J82" s="41"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="47">
+      <c r="A83" s="49"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="53"/>
+      <c r="D83" s="23">
         <v>2</v>
       </c>
       <c r="E83" s="4" t="s">
@@ -2502,15 +2502,15 @@
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="23"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="47">
+      <c r="A84" s="49"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="53"/>
+      <c r="D84" s="23">
         <v>3</v>
       </c>
       <c r="E84" s="4" t="s">
@@ -2518,15 +2518,15 @@
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="23"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="38"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="47">
+      <c r="A85" s="49"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="23">
         <v>4</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -2534,15 +2534,15 @@
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="29"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="23"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="38"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="47">
+      <c r="A86" s="49"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="23">
         <v>5</v>
       </c>
       <c r="E86" s="4" t="s">
@@ -2550,15 +2550,15 @@
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="29"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="23"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="48">
+      <c r="A87" s="49"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="24">
         <v>6</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -2566,35 +2566,35 @@
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="23"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="38"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="47">
+      <c r="A88" s="49"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="23">
         <v>1</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F88" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G88" s="29"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="25" t="s">
+      <c r="H88" s="36"/>
+      <c r="I88" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J88" s="22"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="38"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="47">
+      <c r="A89" s="49"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="23">
         <v>2</v>
       </c>
       <c r="E89" s="4" t="s">
@@ -2602,15 +2602,15 @@
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="23"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="38"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="47">
+      <c r="A90" s="49"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="23">
         <v>3</v>
       </c>
       <c r="E90" s="4" t="s">
@@ -2618,31 +2618,31 @@
       </c>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="23"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="47">
+      <c r="A91" s="49"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="23">
         <v>4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="23"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="38"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="47">
+      <c r="A92" s="49"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="53"/>
+      <c r="D92" s="23">
         <v>5</v>
       </c>
       <c r="E92" s="4" t="s">
@@ -2650,15 +2650,15 @@
       </c>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="23"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="48">
+      <c r="A93" s="50"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="24">
         <v>6</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -2666,9 +2666,9 @@
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="30"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="23"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2703,7 +2703,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="36" t="s">
+      <c r="A95" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="31" t="s">
@@ -2712,29 +2712,29 @@
       <c r="C95" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="46">
+      <c r="D95" s="22">
         <v>1</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F95" s="28" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G95" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H95" s="33"/>
-      <c r="I95" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H95" s="35"/>
+      <c r="I95" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J95" s="22"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="32"/>
       <c r="C96" s="29"/>
-      <c r="D96" s="47">
+      <c r="D96" s="23">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -2742,15 +2742,15 @@
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="23"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="32"/>
       <c r="C97" s="29"/>
-      <c r="D97" s="47">
+      <c r="D97" s="23">
         <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
@@ -2758,31 +2758,31 @@
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="23"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="32"/>
       <c r="C98" s="29"/>
-      <c r="D98" s="47">
+      <c r="D98" s="23">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="23"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="42"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="32"/>
       <c r="C99" s="29"/>
-      <c r="D99" s="47">
+      <c r="D99" s="23">
         <v>5</v>
       </c>
       <c r="E99" s="4" t="s">
@@ -2790,15 +2790,15 @@
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="23"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="42"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="32"/>
       <c r="C100" s="29"/>
-      <c r="D100" s="48">
+      <c r="D100" s="24">
         <v>6</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -2806,35 +2806,35 @@
       </c>
       <c r="F100" s="30"/>
       <c r="G100" s="29"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="24"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="46"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="37"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="32"/>
       <c r="C101" s="29"/>
-      <c r="D101" s="46">
+      <c r="D101" s="22">
         <v>1</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G101" s="29"/>
-      <c r="H101" s="33"/>
-      <c r="I101" s="25" t="s">
+      <c r="H101" s="35"/>
+      <c r="I101" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J101" s="22"/>
+      <c r="J101" s="41"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="37"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="32"/>
       <c r="C102" s="29"/>
-      <c r="D102" s="47">
+      <c r="D102" s="23">
         <v>2</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -2842,15 +2842,15 @@
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="34"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="23"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="42"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="37"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="32"/>
       <c r="C103" s="29"/>
-      <c r="D103" s="47">
+      <c r="D103" s="23">
         <v>3</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -2858,15 +2858,15 @@
       </c>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="23"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="42"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="32"/>
       <c r="C104" s="29"/>
-      <c r="D104" s="47">
+      <c r="D104" s="23">
         <v>4</v>
       </c>
       <c r="E104" s="4" t="s">
@@ -2874,15 +2874,15 @@
       </c>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
-      <c r="H104" s="34"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="23"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="42"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="32"/>
       <c r="C105" s="29"/>
-      <c r="D105" s="47">
+      <c r="D105" s="23">
         <v>5</v>
       </c>
       <c r="E105" s="4" t="s">
@@ -2890,15 +2890,15 @@
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
-      <c r="H105" s="34"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="23"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="42"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="32"/>
       <c r="C106" s="29"/>
-      <c r="D106" s="48">
+      <c r="D106" s="24">
         <v>6</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -2906,35 +2906,35 @@
       </c>
       <c r="F106" s="30"/>
       <c r="G106" s="29"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="23"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="42"/>
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="37"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="32"/>
       <c r="C107" s="29"/>
-      <c r="D107" s="46">
+      <c r="D107" s="22">
         <v>1</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F107" s="28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G107" s="29"/>
-      <c r="H107" s="33"/>
-      <c r="I107" s="25" t="s">
+      <c r="H107" s="35"/>
+      <c r="I107" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J107" s="22"/>
+      <c r="J107" s="41"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="37"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="32"/>
       <c r="C108" s="29"/>
-      <c r="D108" s="47">
+      <c r="D108" s="23">
         <v>2</v>
       </c>
       <c r="E108" s="4" t="s">
@@ -2942,15 +2942,15 @@
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
-      <c r="H108" s="34"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="23"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="42"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="37"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="32"/>
       <c r="C109" s="29"/>
-      <c r="D109" s="47">
+      <c r="D109" s="23">
         <v>3</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -2958,15 +2958,15 @@
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="34"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="23"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="42"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="40"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="47">
+      <c r="A110" s="49"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="23">
         <v>4</v>
       </c>
       <c r="E110" s="4" t="s">
@@ -2974,15 +2974,15 @@
       </c>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
-      <c r="H110" s="34"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="23"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="42"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="40"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="47">
+      <c r="A111" s="49"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="23">
         <v>5</v>
       </c>
       <c r="E111" s="4" t="s">
@@ -2990,15 +2990,15 @@
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
-      <c r="H111" s="34"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="23"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="42"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="38"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="48">
+      <c r="A112" s="49"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="24">
         <v>6</v>
       </c>
       <c r="E112" s="7" t="s">
@@ -3006,35 +3006,35 @@
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="29"/>
-      <c r="H112" s="34"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="23"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="42"/>
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="47">
+      <c r="A113" s="49"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="23">
         <v>1</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G113" s="29"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="25" t="s">
+      <c r="H113" s="35"/>
+      <c r="I113" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J113" s="22"/>
+      <c r="J113" s="41"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="38"/>
-      <c r="B114" s="40"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="47">
+      <c r="A114" s="49"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="23">
         <v>2</v>
       </c>
       <c r="E114" s="4" t="s">
@@ -3042,15 +3042,15 @@
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="23"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="38"/>
-      <c r="B115" s="40"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="47">
+      <c r="A115" s="49"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="23">
         <v>3</v>
       </c>
       <c r="E115" s="4" t="s">
@@ -3058,15 +3058,15 @@
       </c>
       <c r="F115" s="29"/>
       <c r="G115" s="29"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="23"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="42"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="47">
+      <c r="A116" s="49"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="53"/>
+      <c r="D116" s="23">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -3074,15 +3074,15 @@
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="34"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="23"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="42"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
-      <c r="B117" s="40"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="47">
+      <c r="A117" s="49"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="53"/>
+      <c r="D117" s="23">
         <v>5</v>
       </c>
       <c r="E117" s="4" t="s">
@@ -3090,15 +3090,15 @@
       </c>
       <c r="F117" s="29"/>
       <c r="G117" s="29"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="23"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="42"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="38"/>
-      <c r="B118" s="40"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="48">
+      <c r="A118" s="49"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="24">
         <v>6</v>
       </c>
       <c r="E118" s="7" t="s">
@@ -3106,34 +3106,34 @@
       </c>
       <c r="F118" s="29"/>
       <c r="G118" s="29"/>
-      <c r="H118" s="34"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="23"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="42"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="38"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="42"/>
+      <c r="A119" s="49"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="53"/>
       <c r="D119" s="21">
         <v>1</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G119" s="29"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="25" t="s">
+      <c r="H119" s="35"/>
+      <c r="I119" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J119" s="22"/>
+      <c r="J119" s="41"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
-      <c r="B120" s="40"/>
-      <c r="C120" s="42"/>
+      <c r="A120" s="49"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="53"/>
       <c r="D120" s="21">
         <v>3</v>
       </c>
@@ -3142,30 +3142,30 @@
       </c>
       <c r="F120" s="29"/>
       <c r="G120" s="29"/>
-      <c r="H120" s="34"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="23"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="42"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
-      <c r="B121" s="40"/>
-      <c r="C121" s="42"/>
+      <c r="A121" s="49"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="53"/>
       <c r="D121" s="21">
         <v>3</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F121" s="29"/>
       <c r="G121" s="29"/>
-      <c r="H121" s="34"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="23"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="42"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="42"/>
+      <c r="A122" s="49"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="53"/>
       <c r="D122" s="21">
         <v>4</v>
       </c>
@@ -3174,14 +3174,14 @@
       </c>
       <c r="F122" s="29"/>
       <c r="G122" s="29"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="23"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="42"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="42"/>
+      <c r="A123" s="49"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="53"/>
       <c r="D123" s="21">
         <v>5</v>
       </c>
@@ -3190,14 +3190,14 @@
       </c>
       <c r="F123" s="29"/>
       <c r="G123" s="29"/>
-      <c r="H123" s="34"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="23"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="42"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="41"/>
-      <c r="C124" s="43"/>
+      <c r="A124" s="50"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="54"/>
       <c r="D124" s="9">
         <v>6</v>
       </c>
@@ -3206,9 +3206,9 @@
       </c>
       <c r="F124" s="29"/>
       <c r="G124" s="30"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="23"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="42"/>
     </row>
     <row r="125" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -3243,7 +3243,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="36" t="s">
+      <c r="A126" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B126" s="31" t="s">
@@ -3252,29 +3252,29 @@
       <c r="C126" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="46">
+      <c r="D126" s="22">
         <v>1</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H126" s="33"/>
-      <c r="I126" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H126" s="35"/>
+      <c r="I126" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J126" s="22"/>
+      <c r="J126" s="41"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="37"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="32"/>
       <c r="C127" s="29"/>
-      <c r="D127" s="47">
+      <c r="D127" s="23">
         <v>2</v>
       </c>
       <c r="E127" s="4" t="s">
@@ -3282,15 +3282,15 @@
       </c>
       <c r="F127" s="29"/>
       <c r="G127" s="29"/>
-      <c r="H127" s="34"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="23"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="42"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="37"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="32"/>
       <c r="C128" s="29"/>
-      <c r="D128" s="47">
+      <c r="D128" s="23">
         <v>3</v>
       </c>
       <c r="E128" s="4" t="s">
@@ -3298,15 +3298,15 @@
       </c>
       <c r="F128" s="29"/>
       <c r="G128" s="29"/>
-      <c r="H128" s="34"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="23"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="42"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="37"/>
+      <c r="A129" s="48"/>
       <c r="B129" s="32"/>
       <c r="C129" s="29"/>
-      <c r="D129" s="47">
+      <c r="D129" s="23">
         <v>4</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -3314,15 +3314,15 @@
       </c>
       <c r="F129" s="29"/>
       <c r="G129" s="29"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="23"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="42"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="37"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="32"/>
       <c r="C130" s="29"/>
-      <c r="D130" s="47">
+      <c r="D130" s="23">
         <v>5</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -3330,15 +3330,15 @@
       </c>
       <c r="F130" s="29"/>
       <c r="G130" s="29"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="23"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="42"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="37"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="32"/>
       <c r="C131" s="29"/>
-      <c r="D131" s="48">
+      <c r="D131" s="24">
         <v>6</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -3346,35 +3346,35 @@
       </c>
       <c r="F131" s="30"/>
       <c r="G131" s="29"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="24"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="45"/>
+      <c r="J131" s="46"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
+      <c r="A132" s="48"/>
       <c r="B132" s="32"/>
       <c r="C132" s="29"/>
-      <c r="D132" s="46">
+      <c r="D132" s="22">
         <v>1</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G132" s="29"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="25" t="s">
+      <c r="H132" s="35"/>
+      <c r="I132" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J132" s="22"/>
+      <c r="J132" s="41"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="37"/>
+      <c r="A133" s="48"/>
       <c r="B133" s="32"/>
       <c r="C133" s="29"/>
-      <c r="D133" s="47">
+      <c r="D133" s="23">
         <v>2</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -3382,15 +3382,15 @@
       </c>
       <c r="F133" s="29"/>
       <c r="G133" s="29"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="23"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="42"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
+      <c r="A134" s="48"/>
       <c r="B134" s="32"/>
       <c r="C134" s="29"/>
-      <c r="D134" s="47">
+      <c r="D134" s="23">
         <v>3</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -3398,15 +3398,15 @@
       </c>
       <c r="F134" s="29"/>
       <c r="G134" s="29"/>
-      <c r="H134" s="34"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="23"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="42"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
+      <c r="A135" s="48"/>
       <c r="B135" s="32"/>
       <c r="C135" s="29"/>
-      <c r="D135" s="47">
+      <c r="D135" s="23">
         <v>4</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -3414,15 +3414,15 @@
       </c>
       <c r="F135" s="29"/>
       <c r="G135" s="29"/>
-      <c r="H135" s="34"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="23"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="42"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
+      <c r="A136" s="48"/>
       <c r="B136" s="32"/>
       <c r="C136" s="29"/>
-      <c r="D136" s="47">
+      <c r="D136" s="23">
         <v>5</v>
       </c>
       <c r="E136" s="4" t="s">
@@ -3430,15 +3430,15 @@
       </c>
       <c r="F136" s="29"/>
       <c r="G136" s="29"/>
-      <c r="H136" s="34"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="23"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="42"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="37"/>
+      <c r="A137" s="48"/>
       <c r="B137" s="32"/>
       <c r="C137" s="29"/>
-      <c r="D137" s="48">
+      <c r="D137" s="24">
         <v>6</v>
       </c>
       <c r="E137" s="7" t="s">
@@ -3446,32 +3446,32 @@
       </c>
       <c r="F137" s="30"/>
       <c r="G137" s="29"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="23"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="42"/>
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="37"/>
+      <c r="A138" s="48"/>
       <c r="B138" s="32"/>
       <c r="C138" s="29"/>
       <c r="D138" s="3">
         <v>1</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G138" s="29"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="25" t="s">
+      <c r="H138" s="35"/>
+      <c r="I138" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J138" s="22"/>
+      <c r="J138" s="41"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="37"/>
+      <c r="A139" s="48"/>
       <c r="B139" s="32"/>
       <c r="C139" s="29"/>
       <c r="D139" s="5">
@@ -3482,12 +3482,12 @@
       </c>
       <c r="F139" s="29"/>
       <c r="G139" s="29"/>
-      <c r="H139" s="34"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="23"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="42"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="37"/>
+      <c r="A140" s="48"/>
       <c r="B140" s="32"/>
       <c r="C140" s="29"/>
       <c r="D140" s="5">
@@ -3498,30 +3498,30 @@
       </c>
       <c r="F140" s="29"/>
       <c r="G140" s="29"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="26"/>
-      <c r="J140" s="23"/>
+      <c r="H140" s="36"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="42"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
-      <c r="B141" s="40"/>
-      <c r="C141" s="42"/>
+      <c r="A141" s="49"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="53"/>
       <c r="D141" s="5">
         <v>4</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="29"/>
-      <c r="H141" s="34"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="23"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="42"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="42"/>
+      <c r="A142" s="49"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="53"/>
       <c r="D142" s="5">
         <v>5</v>
       </c>
@@ -3530,14 +3530,14 @@
       </c>
       <c r="F142" s="29"/>
       <c r="G142" s="29"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="23"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="42"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="42"/>
+      <c r="A143" s="49"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="53"/>
       <c r="D143" s="9">
         <v>6</v>
       </c>
@@ -3546,35 +3546,35 @@
       </c>
       <c r="F143" s="30"/>
       <c r="G143" s="29"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="23"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="42"/>
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
-      <c r="B144" s="40"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="47">
+      <c r="A144" s="49"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="53"/>
+      <c r="D144" s="23">
         <v>1</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F144" s="28" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G144" s="29"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="25" t="s">
+      <c r="H144" s="35"/>
+      <c r="I144" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J144" s="22"/>
+      <c r="J144" s="41"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
-      <c r="B145" s="40"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="47">
+      <c r="A145" s="49"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="53"/>
+      <c r="D145" s="23">
         <v>2</v>
       </c>
       <c r="E145" s="4" t="s">
@@ -3582,15 +3582,15 @@
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="29"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="23"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="42"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
-      <c r="B146" s="40"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="47">
+      <c r="A146" s="49"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="23">
         <v>3</v>
       </c>
       <c r="E146" s="4" t="s">
@@ -3598,15 +3598,15 @@
       </c>
       <c r="F146" s="29"/>
       <c r="G146" s="29"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="23"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="39"/>
+      <c r="J146" s="42"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
-      <c r="B147" s="40"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="47">
+      <c r="A147" s="49"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="23">
         <v>4</v>
       </c>
       <c r="E147" s="4" t="s">
@@ -3614,15 +3614,15 @@
       </c>
       <c r="F147" s="29"/>
       <c r="G147" s="29"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="26"/>
-      <c r="J147" s="23"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="39"/>
+      <c r="J147" s="42"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
-      <c r="B148" s="40"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="47">
+      <c r="A148" s="49"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="23">
         <v>5</v>
       </c>
       <c r="E148" s="4" t="s">
@@ -3630,50 +3630,50 @@
       </c>
       <c r="F148" s="29"/>
       <c r="G148" s="29"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="23"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="39"/>
+      <c r="J148" s="42"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
-      <c r="B149" s="40"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="51">
+      <c r="A149" s="49"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="53"/>
+      <c r="D149" s="27">
         <v>6</v>
       </c>
-      <c r="E149" s="50" t="s">
+      <c r="E149" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F149" s="29"/>
       <c r="G149" s="29"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="23"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="39"/>
+      <c r="J149" s="42"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="38"/>
-      <c r="B150" s="40"/>
-      <c r="C150" s="42"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="53"/>
       <c r="D150" s="21">
         <v>1</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G150" s="29"/>
-      <c r="H150" s="33"/>
-      <c r="I150" s="25" t="s">
+      <c r="H150" s="35"/>
+      <c r="I150" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J150" s="22"/>
+      <c r="J150" s="41"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="38"/>
-      <c r="B151" s="40"/>
-      <c r="C151" s="42"/>
+      <c r="A151" s="49"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="53"/>
       <c r="D151" s="21">
         <v>2</v>
       </c>
@@ -3682,14 +3682,14 @@
       </c>
       <c r="F151" s="29"/>
       <c r="G151" s="29"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="23"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="42"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
-      <c r="B152" s="40"/>
-      <c r="C152" s="42"/>
+      <c r="A152" s="49"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="53"/>
       <c r="D152" s="21">
         <v>3</v>
       </c>
@@ -3698,14 +3698,14 @@
       </c>
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="23"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="39"/>
+      <c r="J152" s="42"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="38"/>
-      <c r="B153" s="40"/>
-      <c r="C153" s="42"/>
+      <c r="A153" s="49"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="53"/>
       <c r="D153" s="21">
         <v>4</v>
       </c>
@@ -3714,14 +3714,14 @@
       </c>
       <c r="F153" s="29"/>
       <c r="G153" s="29"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="23"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="39"/>
+      <c r="J153" s="42"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="38"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="42"/>
+      <c r="A154" s="49"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="53"/>
       <c r="D154" s="21">
         <v>5</v>
       </c>
@@ -3730,14 +3730,14 @@
       </c>
       <c r="F154" s="29"/>
       <c r="G154" s="29"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="23"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="39"/>
+      <c r="J154" s="42"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="39"/>
-      <c r="B155" s="41"/>
-      <c r="C155" s="43"/>
+      <c r="A155" s="50"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="54"/>
       <c r="D155" s="6">
         <v>6</v>
       </c>
@@ -3746,9 +3746,9 @@
       </c>
       <c r="F155" s="29"/>
       <c r="G155" s="30"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="23"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="39"/>
+      <c r="J155" s="42"/>
     </row>
     <row r="156" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -3783,11 +3783,11 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="36" t="s">
-        <v>68</v>
+      <c r="A157" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C157" s="28" t="s">
         <v>11</v>
@@ -3796,22 +3796,22 @@
         <v>1</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F157" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H157" s="33"/>
-      <c r="I157" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H157" s="35"/>
+      <c r="I157" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="J157" s="22"/>
+      <c r="J157" s="41"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="37"/>
+      <c r="A158" s="48"/>
       <c r="B158" s="32"/>
       <c r="C158" s="29"/>
       <c r="D158" s="15">
@@ -3822,12 +3822,12 @@
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="29"/>
-      <c r="H158" s="34"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="23"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="39"/>
+      <c r="J158" s="42"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="37"/>
+      <c r="A159" s="48"/>
       <c r="B159" s="32"/>
       <c r="C159" s="29"/>
       <c r="D159" s="15">
@@ -3838,12 +3838,12 @@
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="29"/>
-      <c r="H159" s="34"/>
-      <c r="I159" s="26"/>
-      <c r="J159" s="23"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="39"/>
+      <c r="J159" s="42"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="37"/>
+      <c r="A160" s="48"/>
       <c r="B160" s="32"/>
       <c r="C160" s="29"/>
       <c r="D160" s="15">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="29"/>
-      <c r="H160" s="34"/>
-      <c r="I160" s="26"/>
-      <c r="J160" s="23"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="39"/>
+      <c r="J160" s="42"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="37"/>
+      <c r="A161" s="48"/>
       <c r="B161" s="32"/>
       <c r="C161" s="29"/>
       <c r="D161" s="21">
@@ -3870,25 +3870,25 @@
       </c>
       <c r="F161" s="29"/>
       <c r="G161" s="29"/>
-      <c r="H161" s="34"/>
-      <c r="I161" s="26"/>
-      <c r="J161" s="23"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="39"/>
+      <c r="J161" s="42"/>
     </row>
     <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="52"/>
-      <c r="B162" s="57"/>
+      <c r="A162" s="57"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="30"/>
-      <c r="D162" s="49">
+      <c r="D162" s="25">
         <v>6</v>
       </c>
-      <c r="E162" s="50" t="s">
+      <c r="E162" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F162" s="53"/>
-      <c r="G162" s="53"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="55"/>
-      <c r="J162" s="56"/>
+      <c r="F162" s="34"/>
+      <c r="G162" s="34"/>
+      <c r="H162" s="37"/>
+      <c r="I162" s="40"/>
+      <c r="J162" s="43"/>
     </row>
     <row r="163" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
@@ -3991,92 +3991,24 @@
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="C157:C162"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="G157:G162"/>
-    <mergeCell ref="H157:H162"/>
-    <mergeCell ref="I157:I162"/>
-    <mergeCell ref="J157:J162"/>
-    <mergeCell ref="F144:F149"/>
-    <mergeCell ref="F150:F155"/>
-    <mergeCell ref="H144:H149"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="I144:I149"/>
-    <mergeCell ref="I150:I155"/>
-    <mergeCell ref="J144:J149"/>
-    <mergeCell ref="J150:J155"/>
-    <mergeCell ref="F157:F162"/>
-    <mergeCell ref="H88:H93"/>
-    <mergeCell ref="I82:I87"/>
-    <mergeCell ref="I88:I93"/>
-    <mergeCell ref="J82:J87"/>
-    <mergeCell ref="J88:J93"/>
-    <mergeCell ref="F82:F87"/>
-    <mergeCell ref="F88:F93"/>
-    <mergeCell ref="F113:F118"/>
-    <mergeCell ref="F119:F124"/>
-    <mergeCell ref="H113:H118"/>
-    <mergeCell ref="H119:H124"/>
-    <mergeCell ref="I113:I118"/>
-    <mergeCell ref="I119:I124"/>
-    <mergeCell ref="J113:J118"/>
-    <mergeCell ref="J119:J124"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="H51:H56"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="I51:I56"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="J51:J56"/>
-    <mergeCell ref="J57:J62"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="H26:H31"/>
-    <mergeCell ref="J20:J25"/>
-    <mergeCell ref="J26:J31"/>
-    <mergeCell ref="I20:I25"/>
-    <mergeCell ref="I26:I31"/>
-    <mergeCell ref="J101:J106"/>
-    <mergeCell ref="G33:G62"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="H39:H44"/>
-    <mergeCell ref="I39:I44"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="J76:J81"/>
-    <mergeCell ref="J95:J100"/>
-    <mergeCell ref="I64:I69"/>
-    <mergeCell ref="H95:H100"/>
-    <mergeCell ref="I95:I100"/>
-    <mergeCell ref="F95:F100"/>
-    <mergeCell ref="G95:G124"/>
-    <mergeCell ref="F101:F106"/>
-    <mergeCell ref="F107:F112"/>
-    <mergeCell ref="H101:H106"/>
-    <mergeCell ref="H82:H87"/>
-    <mergeCell ref="I101:I106"/>
-    <mergeCell ref="I107:I112"/>
-    <mergeCell ref="A64:A93"/>
-    <mergeCell ref="B64:B93"/>
-    <mergeCell ref="C64:C93"/>
-    <mergeCell ref="A95:A124"/>
-    <mergeCell ref="B95:B124"/>
-    <mergeCell ref="C95:C124"/>
-    <mergeCell ref="F138:F143"/>
-    <mergeCell ref="A126:A155"/>
-    <mergeCell ref="B126:B155"/>
-    <mergeCell ref="C126:C155"/>
-    <mergeCell ref="F126:F131"/>
-    <mergeCell ref="F132:F137"/>
-    <mergeCell ref="F76:F81"/>
-    <mergeCell ref="I76:I81"/>
-    <mergeCell ref="H76:H81"/>
-    <mergeCell ref="G64:G93"/>
-    <mergeCell ref="H64:H69"/>
-    <mergeCell ref="H107:H112"/>
-    <mergeCell ref="G2:G31"/>
-    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="J126:J131"/>
+    <mergeCell ref="I33:I38"/>
+    <mergeCell ref="J33:J38"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="J107:J112"/>
+    <mergeCell ref="H132:H137"/>
+    <mergeCell ref="I132:I137"/>
+    <mergeCell ref="J132:J137"/>
+    <mergeCell ref="H126:H131"/>
+    <mergeCell ref="G126:G155"/>
+    <mergeCell ref="I138:I143"/>
+    <mergeCell ref="H138:H143"/>
+    <mergeCell ref="J138:J143"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="J45:J50"/>
     <mergeCell ref="I14:I19"/>
@@ -4101,24 +4033,92 @@
     <mergeCell ref="I70:I75"/>
     <mergeCell ref="J70:J75"/>
     <mergeCell ref="F64:F69"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="J126:J131"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="J33:J38"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="J107:J112"/>
-    <mergeCell ref="H132:H137"/>
-    <mergeCell ref="I132:I137"/>
-    <mergeCell ref="J132:J137"/>
-    <mergeCell ref="H126:H131"/>
-    <mergeCell ref="G126:G155"/>
-    <mergeCell ref="I138:I143"/>
-    <mergeCell ref="H138:H143"/>
-    <mergeCell ref="J138:J143"/>
+    <mergeCell ref="A64:A93"/>
+    <mergeCell ref="B64:B93"/>
+    <mergeCell ref="C64:C93"/>
+    <mergeCell ref="A95:A124"/>
+    <mergeCell ref="B95:B124"/>
+    <mergeCell ref="C95:C124"/>
+    <mergeCell ref="F138:F143"/>
+    <mergeCell ref="A126:A155"/>
+    <mergeCell ref="B126:B155"/>
+    <mergeCell ref="C126:C155"/>
+    <mergeCell ref="F126:F131"/>
+    <mergeCell ref="F132:F137"/>
+    <mergeCell ref="F76:F81"/>
+    <mergeCell ref="J76:J81"/>
+    <mergeCell ref="J95:J100"/>
+    <mergeCell ref="I64:I69"/>
+    <mergeCell ref="H95:H100"/>
+    <mergeCell ref="I95:I100"/>
+    <mergeCell ref="F95:F100"/>
+    <mergeCell ref="G95:G124"/>
+    <mergeCell ref="F101:F106"/>
+    <mergeCell ref="F107:F112"/>
+    <mergeCell ref="H101:H106"/>
+    <mergeCell ref="H82:H87"/>
+    <mergeCell ref="I101:I106"/>
+    <mergeCell ref="I107:I112"/>
+    <mergeCell ref="I76:I81"/>
+    <mergeCell ref="H76:H81"/>
+    <mergeCell ref="G64:G93"/>
+    <mergeCell ref="H64:H69"/>
+    <mergeCell ref="H107:H112"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="H51:H56"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="J51:J56"/>
+    <mergeCell ref="J57:J62"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="H26:H31"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="I26:I31"/>
+    <mergeCell ref="G33:G62"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="H39:H44"/>
+    <mergeCell ref="I39:I44"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="G2:G31"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="H88:H93"/>
+    <mergeCell ref="I82:I87"/>
+    <mergeCell ref="I88:I93"/>
+    <mergeCell ref="J82:J87"/>
+    <mergeCell ref="J88:J93"/>
+    <mergeCell ref="F82:F87"/>
+    <mergeCell ref="F88:F93"/>
+    <mergeCell ref="F113:F118"/>
+    <mergeCell ref="F119:F124"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="H119:H124"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="I119:I124"/>
+    <mergeCell ref="J113:J118"/>
+    <mergeCell ref="J119:J124"/>
+    <mergeCell ref="J101:J106"/>
+    <mergeCell ref="C157:C162"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="G157:G162"/>
+    <mergeCell ref="H157:H162"/>
+    <mergeCell ref="I157:I162"/>
+    <mergeCell ref="J157:J162"/>
+    <mergeCell ref="F144:F149"/>
+    <mergeCell ref="F150:F155"/>
+    <mergeCell ref="H144:H149"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="I144:I149"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="J144:J149"/>
+    <mergeCell ref="J150:J155"/>
+    <mergeCell ref="F157:F162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
